--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业单位数.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -663,140 +663,140 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17958</v>
+        <v>17815</v>
       </c>
       <c r="C2" t="n">
-        <v>4342</v>
+        <v>4332</v>
       </c>
       <c r="D2" t="n">
-        <v>1670</v>
+        <v>1720</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>24906</v>
+        <v>24625</v>
       </c>
       <c r="G2" t="n">
-        <v>353767</v>
+        <v>350117</v>
       </c>
       <c r="H2" t="n">
-        <v>23447</v>
+        <v>23322</v>
       </c>
       <c r="I2" t="n">
-        <v>1825</v>
+        <v>1796</v>
       </c>
       <c r="J2" t="n">
-        <v>7556</v>
+        <v>7483</v>
       </c>
       <c r="K2" t="n">
-        <v>5663</v>
+        <v>5582</v>
       </c>
       <c r="L2" t="n">
-        <v>6236</v>
+        <v>6196</v>
       </c>
       <c r="M2" t="n">
-        <v>376236</v>
+        <v>372341</v>
       </c>
       <c r="N2" t="n">
-        <v>1653</v>
+        <v>1560</v>
       </c>
       <c r="O2" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P2" t="n">
-        <v>9204</v>
+        <v>8925</v>
       </c>
       <c r="Q2" t="n">
-        <v>6871</v>
+        <v>6683</v>
       </c>
       <c r="R2" t="n">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="S2" t="n">
-        <v>9038</v>
+        <v>8852</v>
       </c>
       <c r="T2" t="n">
-        <v>18530</v>
+        <v>18390</v>
       </c>
       <c r="U2" t="n">
-        <v>1930</v>
+        <v>1917</v>
       </c>
       <c r="V2" t="n">
-        <v>15095</v>
+        <v>14926</v>
       </c>
       <c r="W2" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X2" t="n">
-        <v>4492</v>
+        <v>4437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687</v>
+        <v>1640</v>
       </c>
       <c r="Z2" t="n">
-        <v>11297</v>
+        <v>11190</v>
       </c>
       <c r="AA2" t="n">
-        <v>7680</v>
+        <v>7633</v>
       </c>
       <c r="AB2" t="n">
-        <v>24074</v>
+        <v>24018</v>
       </c>
       <c r="AC2" t="n">
-        <v>8466</v>
+        <v>8325</v>
       </c>
       <c r="AD2" t="n">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="AE2" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AF2" t="n">
-        <v>19028</v>
+        <v>18967</v>
       </c>
       <c r="AG2" t="n">
-        <v>14727</v>
+        <v>14379</v>
       </c>
       <c r="AH2" t="n">
-        <v>16455</v>
+        <v>15967</v>
       </c>
       <c r="AI2" t="n">
-        <v>23781</v>
+        <v>23652</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6698</v>
+        <v>6657</v>
       </c>
       <c r="AK2" t="n">
-        <v>6768</v>
+        <v>6717</v>
       </c>
       <c r="AL2" t="n">
-        <v>11172</v>
+        <v>11034</v>
       </c>
       <c r="AM2" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AN2" t="n">
-        <v>23625</v>
+        <v>23403</v>
       </c>
       <c r="AO2" t="n">
-        <v>4769</v>
+        <v>4742</v>
       </c>
       <c r="AP2" t="n">
-        <v>34843</v>
+        <v>34535</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3372</v>
+        <v>3303</v>
       </c>
       <c r="AR2" t="n">
-        <v>8940</v>
+        <v>8874</v>
       </c>
       <c r="AS2" t="n">
-        <v>5131</v>
+        <v>5208</v>
       </c>
       <c r="AT2" t="n">
         <v>1523</v>
@@ -805,6107 +805,6107 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18055</v>
+        <v>17801</v>
       </c>
       <c r="C3" t="n">
-        <v>4351</v>
+        <v>4324</v>
       </c>
       <c r="D3" t="n">
-        <v>1679</v>
+        <v>1718</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>25008</v>
+        <v>24616</v>
       </c>
       <c r="G3" t="n">
-        <v>355847</v>
+        <v>349929</v>
       </c>
       <c r="H3" t="n">
-        <v>23535</v>
+        <v>23290</v>
       </c>
       <c r="I3" t="n">
-        <v>1831</v>
+        <v>1796</v>
       </c>
       <c r="J3" t="n">
-        <v>7577</v>
+        <v>7484</v>
       </c>
       <c r="K3" t="n">
-        <v>5684</v>
+        <v>5585</v>
       </c>
       <c r="L3" t="n">
-        <v>6305</v>
+        <v>6188</v>
       </c>
       <c r="M3" t="n">
-        <v>378440</v>
+        <v>372197</v>
       </c>
       <c r="N3" t="n">
-        <v>1704</v>
+        <v>1559</v>
       </c>
       <c r="O3" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P3" t="n">
-        <v>9265</v>
+        <v>8927</v>
       </c>
       <c r="Q3" t="n">
-        <v>6917</v>
+        <v>6664</v>
       </c>
       <c r="R3" t="n">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="S3" t="n">
-        <v>9163</v>
+        <v>8850</v>
       </c>
       <c r="T3" t="n">
-        <v>18622</v>
+        <v>18389</v>
       </c>
       <c r="U3" t="n">
-        <v>1935</v>
+        <v>1915</v>
       </c>
       <c r="V3" t="n">
-        <v>15176</v>
+        <v>14918</v>
       </c>
       <c r="W3" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X3" t="n">
-        <v>4505</v>
+        <v>4466</v>
       </c>
       <c r="Y3" t="n">
-        <v>1694</v>
+        <v>1642</v>
       </c>
       <c r="Z3" t="n">
-        <v>11375</v>
+        <v>11190</v>
       </c>
       <c r="AA3" t="n">
-        <v>7746</v>
+        <v>7633</v>
       </c>
       <c r="AB3" t="n">
-        <v>24214</v>
+        <v>23989</v>
       </c>
       <c r="AC3" t="n">
-        <v>8549</v>
+        <v>8324</v>
       </c>
       <c r="AD3" t="n">
-        <v>2002</v>
+        <v>1982</v>
       </c>
       <c r="AE3" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AF3" t="n">
-        <v>19149</v>
+        <v>18969</v>
       </c>
       <c r="AG3" t="n">
-        <v>14825</v>
+        <v>14381</v>
       </c>
       <c r="AH3" t="n">
-        <v>16642</v>
+        <v>15995</v>
       </c>
       <c r="AI3" t="n">
-        <v>23863</v>
+        <v>23658</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6716</v>
+        <v>6650</v>
       </c>
       <c r="AK3" t="n">
-        <v>6801</v>
+        <v>6706</v>
       </c>
       <c r="AL3" t="n">
-        <v>11218</v>
+        <v>11078</v>
       </c>
       <c r="AM3" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AN3" t="n">
-        <v>23751</v>
+        <v>23399</v>
       </c>
       <c r="AO3" t="n">
-        <v>4785</v>
+        <v>4744</v>
       </c>
       <c r="AP3" t="n">
-        <v>35077</v>
+        <v>34487</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3394</v>
+        <v>3296</v>
       </c>
       <c r="AR3" t="n">
-        <v>8975</v>
+        <v>8869</v>
       </c>
       <c r="AS3" t="n">
-        <v>5148</v>
+        <v>5188</v>
       </c>
       <c r="AT3" t="n">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18057</v>
+        <v>17886</v>
       </c>
       <c r="C4" t="n">
-        <v>4355</v>
+        <v>4347</v>
       </c>
       <c r="D4" t="n">
-        <v>1673</v>
+        <v>1760</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>25007</v>
+        <v>24565</v>
       </c>
       <c r="G4" t="n">
-        <v>355852</v>
+        <v>350141</v>
       </c>
       <c r="H4" t="n">
-        <v>23513</v>
+        <v>23256</v>
       </c>
       <c r="I4" t="n">
-        <v>1832</v>
+        <v>1806</v>
       </c>
       <c r="J4" t="n">
-        <v>7581</v>
+        <v>7486</v>
       </c>
       <c r="K4" t="n">
-        <v>5706</v>
+        <v>5612</v>
       </c>
       <c r="L4" t="n">
-        <v>6300</v>
+        <v>6188</v>
       </c>
       <c r="M4" t="n">
-        <v>378440</v>
+        <v>372355</v>
       </c>
       <c r="N4" t="n">
-        <v>1710</v>
+        <v>1560</v>
       </c>
       <c r="O4" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P4" t="n">
-        <v>9307</v>
+        <v>8988</v>
       </c>
       <c r="Q4" t="n">
-        <v>6942</v>
+        <v>6709</v>
       </c>
       <c r="R4" t="n">
-        <v>1456</v>
+        <v>1439</v>
       </c>
       <c r="S4" t="n">
-        <v>9153</v>
+        <v>8879</v>
       </c>
       <c r="T4" t="n">
-        <v>18621</v>
+        <v>18374</v>
       </c>
       <c r="U4" t="n">
-        <v>1934</v>
+        <v>1911</v>
       </c>
       <c r="V4" t="n">
-        <v>15174</v>
+        <v>14902</v>
       </c>
       <c r="W4" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X4" t="n">
-        <v>4505</v>
+        <v>4445</v>
       </c>
       <c r="Y4" t="n">
-        <v>1693</v>
+        <v>1645</v>
       </c>
       <c r="Z4" t="n">
-        <v>11374</v>
+        <v>11186</v>
       </c>
       <c r="AA4" t="n">
-        <v>7747</v>
+        <v>7630</v>
       </c>
       <c r="AB4" t="n">
-        <v>24190</v>
+        <v>24024</v>
       </c>
       <c r="AC4" t="n">
-        <v>8550</v>
+        <v>8315</v>
       </c>
       <c r="AD4" t="n">
-        <v>2001</v>
+        <v>2035</v>
       </c>
       <c r="AE4" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AF4" t="n">
-        <v>19122</v>
+        <v>18937</v>
       </c>
       <c r="AG4" t="n">
-        <v>14827</v>
+        <v>14404</v>
       </c>
       <c r="AH4" t="n">
-        <v>16656</v>
+        <v>15982</v>
       </c>
       <c r="AI4" t="n">
-        <v>23869</v>
+        <v>23727</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6704</v>
+        <v>6631</v>
       </c>
       <c r="AK4" t="n">
-        <v>6805</v>
+        <v>6713</v>
       </c>
       <c r="AL4" t="n">
-        <v>11214</v>
+        <v>11028</v>
       </c>
       <c r="AM4" t="n">
         <v>361</v>
       </c>
       <c r="AN4" t="n">
-        <v>23739</v>
+        <v>23450</v>
       </c>
       <c r="AO4" t="n">
-        <v>4790</v>
+        <v>4727</v>
       </c>
       <c r="AP4" t="n">
-        <v>35072</v>
+        <v>34499</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3395</v>
+        <v>3298</v>
       </c>
       <c r="AR4" t="n">
-        <v>8981</v>
+        <v>8894</v>
       </c>
       <c r="AS4" t="n">
-        <v>5138</v>
+        <v>5000</v>
       </c>
       <c r="AT4" t="n">
-        <v>1528</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17815</v>
+        <v>17895</v>
       </c>
       <c r="C5" t="n">
-        <v>4332</v>
+        <v>4350</v>
       </c>
       <c r="D5" t="n">
-        <v>1720</v>
+        <v>1765</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>24625</v>
+        <v>24595</v>
       </c>
       <c r="G5" t="n">
-        <v>350117</v>
+        <v>350427</v>
       </c>
       <c r="H5" t="n">
-        <v>23322</v>
+        <v>23294</v>
       </c>
       <c r="I5" t="n">
-        <v>1796</v>
+        <v>1807</v>
       </c>
       <c r="J5" t="n">
-        <v>7483</v>
+        <v>7481</v>
       </c>
       <c r="K5" t="n">
-        <v>5582</v>
+        <v>5622</v>
       </c>
       <c r="L5" t="n">
-        <v>6196</v>
+        <v>6202</v>
       </c>
       <c r="M5" t="n">
-        <v>372341</v>
+        <v>372698</v>
       </c>
       <c r="N5" t="n">
-        <v>1560</v>
+        <v>1567</v>
       </c>
       <c r="O5" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P5" t="n">
-        <v>8925</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="n">
-        <v>6683</v>
+        <v>6727</v>
       </c>
       <c r="R5" t="n">
         <v>1447</v>
       </c>
       <c r="S5" t="n">
-        <v>8852</v>
+        <v>8886</v>
       </c>
       <c r="T5" t="n">
-        <v>18390</v>
+        <v>18403</v>
       </c>
       <c r="U5" t="n">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="V5" t="n">
-        <v>14926</v>
+        <v>14920</v>
       </c>
       <c r="W5" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X5" t="n">
-        <v>4437</v>
+        <v>4462</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640</v>
+        <v>1647</v>
       </c>
       <c r="Z5" t="n">
-        <v>11190</v>
+        <v>11210</v>
       </c>
       <c r="AA5" t="n">
-        <v>7633</v>
+        <v>7650</v>
       </c>
       <c r="AB5" t="n">
-        <v>24018</v>
+        <v>24028</v>
       </c>
       <c r="AC5" t="n">
-        <v>8325</v>
+        <v>8323</v>
       </c>
       <c r="AD5" t="n">
-        <v>1984</v>
+        <v>2015</v>
       </c>
       <c r="AE5" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF5" t="n">
-        <v>18967</v>
+        <v>18955</v>
       </c>
       <c r="AG5" t="n">
-        <v>14379</v>
+        <v>14413</v>
       </c>
       <c r="AH5" t="n">
-        <v>15967</v>
+        <v>16021</v>
       </c>
       <c r="AI5" t="n">
-        <v>23652</v>
+        <v>23730</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6657</v>
+        <v>6634</v>
       </c>
       <c r="AK5" t="n">
         <v>6717</v>
       </c>
       <c r="AL5" t="n">
-        <v>11034</v>
+        <v>11061</v>
       </c>
       <c r="AM5" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AN5" t="n">
-        <v>23403</v>
+        <v>23458</v>
       </c>
       <c r="AO5" t="n">
-        <v>4742</v>
+        <v>4737</v>
       </c>
       <c r="AP5" t="n">
-        <v>34535</v>
+        <v>34498</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="AR5" t="n">
-        <v>8874</v>
+        <v>8899</v>
       </c>
       <c r="AS5" t="n">
-        <v>5208</v>
+        <v>4999</v>
       </c>
       <c r="AT5" t="n">
-        <v>1523</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17801</v>
+        <v>17909</v>
       </c>
       <c r="C6" t="n">
-        <v>4324</v>
+        <v>4355</v>
       </c>
       <c r="D6" t="n">
-        <v>1718</v>
+        <v>1761</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>24616</v>
+        <v>24626</v>
       </c>
       <c r="G6" t="n">
-        <v>349929</v>
+        <v>350936</v>
       </c>
       <c r="H6" t="n">
-        <v>23290</v>
+        <v>23306</v>
       </c>
       <c r="I6" t="n">
-        <v>1796</v>
+        <v>1811</v>
       </c>
       <c r="J6" t="n">
-        <v>7484</v>
+        <v>7491</v>
       </c>
       <c r="K6" t="n">
-        <v>5585</v>
+        <v>5624</v>
       </c>
       <c r="L6" t="n">
-        <v>6188</v>
+        <v>6217</v>
       </c>
       <c r="M6" t="n">
-        <v>372197</v>
+        <v>373244</v>
       </c>
       <c r="N6" t="n">
-        <v>1559</v>
+        <v>1578</v>
       </c>
       <c r="O6" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P6" t="n">
-        <v>8927</v>
+        <v>9022</v>
       </c>
       <c r="Q6" t="n">
-        <v>6664</v>
+        <v>6751</v>
       </c>
       <c r="R6" t="n">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="S6" t="n">
-        <v>8850</v>
+        <v>8898</v>
       </c>
       <c r="T6" t="n">
-        <v>18389</v>
+        <v>18416</v>
       </c>
       <c r="U6" t="n">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="V6" t="n">
-        <v>14918</v>
+        <v>14951</v>
       </c>
       <c r="W6" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X6" t="n">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="Y6" t="n">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="Z6" t="n">
-        <v>11190</v>
+        <v>11230</v>
       </c>
       <c r="AA6" t="n">
-        <v>7633</v>
+        <v>7669</v>
       </c>
       <c r="AB6" t="n">
-        <v>23989</v>
+        <v>24047</v>
       </c>
       <c r="AC6" t="n">
-        <v>8324</v>
+        <v>8357</v>
       </c>
       <c r="AD6" t="n">
-        <v>1982</v>
+        <v>2020</v>
       </c>
       <c r="AE6" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AF6" t="n">
-        <v>18969</v>
+        <v>18983</v>
       </c>
       <c r="AG6" t="n">
-        <v>14381</v>
+        <v>14426</v>
       </c>
       <c r="AH6" t="n">
-        <v>15995</v>
+        <v>16071</v>
       </c>
       <c r="AI6" t="n">
-        <v>23658</v>
+        <v>23756</v>
       </c>
       <c r="AJ6" t="n">
         <v>6650</v>
       </c>
       <c r="AK6" t="n">
-        <v>6706</v>
+        <v>6729</v>
       </c>
       <c r="AL6" t="n">
         <v>11078</v>
       </c>
       <c r="AM6" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AN6" t="n">
-        <v>23399</v>
+        <v>23490</v>
       </c>
       <c r="AO6" t="n">
-        <v>4744</v>
+        <v>4735</v>
       </c>
       <c r="AP6" t="n">
-        <v>34487</v>
+        <v>34554</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3296</v>
+        <v>3310</v>
       </c>
       <c r="AR6" t="n">
-        <v>8869</v>
+        <v>8906</v>
       </c>
       <c r="AS6" t="n">
-        <v>5188</v>
+        <v>5011</v>
       </c>
       <c r="AT6" t="n">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17886</v>
+        <v>17931</v>
       </c>
       <c r="C7" t="n">
-        <v>4347</v>
+        <v>4359</v>
       </c>
       <c r="D7" t="n">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="E7" t="n">
         <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>24565</v>
+        <v>24677</v>
       </c>
       <c r="G7" t="n">
-        <v>350141</v>
+        <v>351596</v>
       </c>
       <c r="H7" t="n">
-        <v>23256</v>
+        <v>23344</v>
       </c>
       <c r="I7" t="n">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="J7" t="n">
-        <v>7486</v>
+        <v>7497</v>
       </c>
       <c r="K7" t="n">
-        <v>5612</v>
+        <v>5632</v>
       </c>
       <c r="L7" t="n">
-        <v>6188</v>
+        <v>6236</v>
       </c>
       <c r="M7" t="n">
-        <v>372355</v>
+        <v>373939</v>
       </c>
       <c r="N7" t="n">
-        <v>1560</v>
+        <v>1590</v>
       </c>
       <c r="O7" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P7" t="n">
-        <v>8988</v>
+        <v>9037</v>
       </c>
       <c r="Q7" t="n">
-        <v>6709</v>
+        <v>6790</v>
       </c>
       <c r="R7" t="n">
-        <v>1439</v>
+        <v>1447</v>
       </c>
       <c r="S7" t="n">
-        <v>8879</v>
+        <v>8932</v>
       </c>
       <c r="T7" t="n">
-        <v>18374</v>
+        <v>18447</v>
       </c>
       <c r="U7" t="n">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="V7" t="n">
-        <v>14902</v>
+        <v>14966</v>
       </c>
       <c r="W7" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X7" t="n">
-        <v>4445</v>
+        <v>4470</v>
       </c>
       <c r="Y7" t="n">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="Z7" t="n">
-        <v>11186</v>
+        <v>11256</v>
       </c>
       <c r="AA7" t="n">
-        <v>7630</v>
+        <v>7690</v>
       </c>
       <c r="AB7" t="n">
-        <v>24024</v>
+        <v>24081</v>
       </c>
       <c r="AC7" t="n">
-        <v>8315</v>
+        <v>8384</v>
       </c>
       <c r="AD7" t="n">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="AE7" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF7" t="n">
-        <v>18937</v>
+        <v>19033</v>
       </c>
       <c r="AG7" t="n">
-        <v>14404</v>
+        <v>14453</v>
       </c>
       <c r="AH7" t="n">
-        <v>15982</v>
+        <v>16137</v>
       </c>
       <c r="AI7" t="n">
-        <v>23727</v>
+        <v>23783</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6631</v>
+        <v>6663</v>
       </c>
       <c r="AK7" t="n">
-        <v>6713</v>
+        <v>6738</v>
       </c>
       <c r="AL7" t="n">
-        <v>11028</v>
+        <v>11087</v>
       </c>
       <c r="AM7" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN7" t="n">
-        <v>23450</v>
+        <v>23517</v>
       </c>
       <c r="AO7" t="n">
-        <v>4727</v>
+        <v>4739</v>
       </c>
       <c r="AP7" t="n">
-        <v>34499</v>
+        <v>34617</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3298</v>
+        <v>3316</v>
       </c>
       <c r="AR7" t="n">
-        <v>8894</v>
+        <v>8923</v>
       </c>
       <c r="AS7" t="n">
-        <v>5000</v>
+        <v>5007</v>
       </c>
       <c r="AT7" t="n">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17895</v>
+        <v>17886</v>
       </c>
       <c r="C8" t="n">
-        <v>4350</v>
+        <v>4347</v>
       </c>
       <c r="D8" t="n">
-        <v>1765</v>
+        <v>1672</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>24595</v>
+        <v>24807</v>
       </c>
       <c r="G8" t="n">
-        <v>350427</v>
+        <v>352125</v>
       </c>
       <c r="H8" t="n">
-        <v>23294</v>
+        <v>23397</v>
       </c>
       <c r="I8" t="n">
-        <v>1807</v>
+        <v>1814</v>
       </c>
       <c r="J8" t="n">
-        <v>7481</v>
+        <v>7526</v>
       </c>
       <c r="K8" t="n">
-        <v>5622</v>
+        <v>5638</v>
       </c>
       <c r="L8" t="n">
-        <v>6202</v>
+        <v>6204</v>
       </c>
       <c r="M8" t="n">
-        <v>372698</v>
+        <v>374552</v>
       </c>
       <c r="N8" t="n">
-        <v>1567</v>
+        <v>1617</v>
       </c>
       <c r="O8" t="n">
         <v>184</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>9148</v>
       </c>
       <c r="Q8" t="n">
-        <v>6727</v>
+        <v>6823</v>
       </c>
       <c r="R8" t="n">
-        <v>1447</v>
+        <v>1454</v>
       </c>
       <c r="S8" t="n">
-        <v>8886</v>
+        <v>8951</v>
       </c>
       <c r="T8" t="n">
-        <v>18403</v>
+        <v>18484</v>
       </c>
       <c r="U8" t="n">
-        <v>1913</v>
+        <v>1924</v>
       </c>
       <c r="V8" t="n">
-        <v>14920</v>
+        <v>15007</v>
       </c>
       <c r="W8" t="n">
+        <v>115</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4473</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1684</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11303</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7695</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>24014</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8390</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1977</v>
+      </c>
+      <c r="AE8" t="n">
         <v>123</v>
       </c>
-      <c r="X8" t="n">
-        <v>4462</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1647</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11210</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>7650</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>24028</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8323</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2015</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>124</v>
-      </c>
       <c r="AF8" t="n">
-        <v>18955</v>
+        <v>18950</v>
       </c>
       <c r="AG8" t="n">
-        <v>14413</v>
+        <v>14620</v>
       </c>
       <c r="AH8" t="n">
-        <v>16021</v>
+        <v>16293</v>
       </c>
       <c r="AI8" t="n">
-        <v>23730</v>
+        <v>23692</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6634</v>
+        <v>6665</v>
       </c>
       <c r="AK8" t="n">
-        <v>6717</v>
+        <v>6745</v>
       </c>
       <c r="AL8" t="n">
-        <v>11061</v>
+        <v>11124</v>
       </c>
       <c r="AM8" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AN8" t="n">
-        <v>23458</v>
+        <v>23562</v>
       </c>
       <c r="AO8" t="n">
-        <v>4737</v>
+        <v>4770</v>
       </c>
       <c r="AP8" t="n">
-        <v>34498</v>
+        <v>34640</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3304</v>
+        <v>3346</v>
       </c>
       <c r="AR8" t="n">
-        <v>8899</v>
+        <v>8900</v>
       </c>
       <c r="AS8" t="n">
-        <v>4999</v>
+        <v>5114</v>
       </c>
       <c r="AT8" t="n">
-        <v>1517</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17909</v>
+        <v>17928</v>
       </c>
       <c r="C9" t="n">
-        <v>4355</v>
+        <v>4343</v>
       </c>
       <c r="D9" t="n">
-        <v>1761</v>
+        <v>1668</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>24626</v>
+        <v>24848</v>
       </c>
       <c r="G9" t="n">
-        <v>350936</v>
+        <v>352820</v>
       </c>
       <c r="H9" t="n">
-        <v>23306</v>
+        <v>23416</v>
       </c>
       <c r="I9" t="n">
-        <v>1811</v>
+        <v>1817</v>
       </c>
       <c r="J9" t="n">
-        <v>7491</v>
+        <v>7546</v>
       </c>
       <c r="K9" t="n">
-        <v>5624</v>
+        <v>5655</v>
       </c>
       <c r="L9" t="n">
-        <v>6217</v>
+        <v>6218</v>
       </c>
       <c r="M9" t="n">
-        <v>373244</v>
+        <v>375296</v>
       </c>
       <c r="N9" t="n">
-        <v>1578</v>
+        <v>1640</v>
       </c>
       <c r="O9" t="n">
         <v>185</v>
       </c>
       <c r="P9" t="n">
-        <v>9022</v>
+        <v>9171</v>
       </c>
       <c r="Q9" t="n">
-        <v>6751</v>
+        <v>6843</v>
       </c>
       <c r="R9" t="n">
-        <v>1447</v>
+        <v>1456</v>
       </c>
       <c r="S9" t="n">
-        <v>8898</v>
+        <v>8990</v>
       </c>
       <c r="T9" t="n">
-        <v>18416</v>
+        <v>18492</v>
       </c>
       <c r="U9" t="n">
-        <v>1914</v>
+        <v>1928</v>
       </c>
       <c r="V9" t="n">
-        <v>14951</v>
+        <v>15045</v>
       </c>
       <c r="W9" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X9" t="n">
-        <v>4467</v>
+        <v>4482</v>
       </c>
       <c r="Y9" t="n">
-        <v>1647</v>
+        <v>1685</v>
       </c>
       <c r="Z9" t="n">
-        <v>11230</v>
+        <v>11330</v>
       </c>
       <c r="AA9" t="n">
-        <v>7669</v>
+        <v>7717</v>
       </c>
       <c r="AB9" t="n">
-        <v>24047</v>
+        <v>24040</v>
       </c>
       <c r="AC9" t="n">
-        <v>8357</v>
+        <v>8430</v>
       </c>
       <c r="AD9" t="n">
-        <v>2020</v>
+        <v>1985</v>
       </c>
       <c r="AE9" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF9" t="n">
-        <v>18983</v>
+        <v>18992</v>
       </c>
       <c r="AG9" t="n">
-        <v>14426</v>
+        <v>14654</v>
       </c>
       <c r="AH9" t="n">
-        <v>16071</v>
+        <v>16347</v>
       </c>
       <c r="AI9" t="n">
-        <v>23756</v>
+        <v>23722</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6650</v>
+        <v>6672</v>
       </c>
       <c r="AK9" t="n">
-        <v>6729</v>
+        <v>6756</v>
       </c>
       <c r="AL9" t="n">
-        <v>11078</v>
+        <v>11146</v>
       </c>
       <c r="AM9" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN9" t="n">
-        <v>23490</v>
+        <v>23595</v>
       </c>
       <c r="AO9" t="n">
-        <v>4735</v>
+        <v>4770</v>
       </c>
       <c r="AP9" t="n">
-        <v>34554</v>
+        <v>34734</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3310</v>
+        <v>3357</v>
       </c>
       <c r="AR9" t="n">
-        <v>8906</v>
+        <v>8912</v>
       </c>
       <c r="AS9" t="n">
-        <v>5011</v>
+        <v>5118</v>
       </c>
       <c r="AT9" t="n">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17931</v>
+        <v>17958</v>
       </c>
       <c r="C10" t="n">
-        <v>4359</v>
+        <v>4342</v>
       </c>
       <c r="D10" t="n">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>24677</v>
+        <v>24906</v>
       </c>
       <c r="G10" t="n">
-        <v>351596</v>
+        <v>353767</v>
       </c>
       <c r="H10" t="n">
-        <v>23344</v>
+        <v>23447</v>
       </c>
       <c r="I10" t="n">
-        <v>1811</v>
+        <v>1825</v>
       </c>
       <c r="J10" t="n">
-        <v>7497</v>
+        <v>7556</v>
       </c>
       <c r="K10" t="n">
-        <v>5632</v>
+        <v>5663</v>
       </c>
       <c r="L10" t="n">
         <v>6236</v>
       </c>
       <c r="M10" t="n">
-        <v>373939</v>
+        <v>376236</v>
       </c>
       <c r="N10" t="n">
-        <v>1590</v>
+        <v>1653</v>
       </c>
       <c r="O10" t="n">
         <v>185</v>
       </c>
       <c r="P10" t="n">
-        <v>9037</v>
+        <v>9204</v>
       </c>
       <c r="Q10" t="n">
-        <v>6790</v>
+        <v>6871</v>
       </c>
       <c r="R10" t="n">
-        <v>1447</v>
+        <v>1458</v>
       </c>
       <c r="S10" t="n">
-        <v>8932</v>
+        <v>9038</v>
       </c>
       <c r="T10" t="n">
-        <v>18447</v>
+        <v>18530</v>
       </c>
       <c r="U10" t="n">
-        <v>1916</v>
+        <v>1930</v>
       </c>
       <c r="V10" t="n">
-        <v>14966</v>
+        <v>15095</v>
       </c>
       <c r="W10" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="X10" t="n">
-        <v>4470</v>
+        <v>4492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1650</v>
+        <v>1687</v>
       </c>
       <c r="Z10" t="n">
-        <v>11256</v>
+        <v>11297</v>
       </c>
       <c r="AA10" t="n">
-        <v>7690</v>
+        <v>7680</v>
       </c>
       <c r="AB10" t="n">
-        <v>24081</v>
+        <v>24074</v>
       </c>
       <c r="AC10" t="n">
-        <v>8384</v>
+        <v>8466</v>
       </c>
       <c r="AD10" t="n">
-        <v>2025</v>
+        <v>1991</v>
       </c>
       <c r="AE10" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF10" t="n">
-        <v>19033</v>
+        <v>19028</v>
       </c>
       <c r="AG10" t="n">
-        <v>14453</v>
+        <v>14727</v>
       </c>
       <c r="AH10" t="n">
-        <v>16137</v>
+        <v>16455</v>
       </c>
       <c r="AI10" t="n">
-        <v>23783</v>
+        <v>23781</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6663</v>
+        <v>6698</v>
       </c>
       <c r="AK10" t="n">
-        <v>6738</v>
+        <v>6768</v>
       </c>
       <c r="AL10" t="n">
-        <v>11087</v>
+        <v>11172</v>
       </c>
       <c r="AM10" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AN10" t="n">
-        <v>23517</v>
+        <v>23625</v>
       </c>
       <c r="AO10" t="n">
-        <v>4739</v>
+        <v>4769</v>
       </c>
       <c r="AP10" t="n">
-        <v>34617</v>
+        <v>34843</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3316</v>
+        <v>3372</v>
       </c>
       <c r="AR10" t="n">
-        <v>8923</v>
+        <v>8940</v>
       </c>
       <c r="AS10" t="n">
-        <v>5007</v>
+        <v>5131</v>
       </c>
       <c r="AT10" t="n">
-        <v>1521</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17886</v>
+        <v>18055</v>
       </c>
       <c r="C11" t="n">
-        <v>4347</v>
+        <v>4351</v>
       </c>
       <c r="D11" t="n">
-        <v>1672</v>
+        <v>1679</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>24807</v>
+        <v>25008</v>
       </c>
       <c r="G11" t="n">
-        <v>352125</v>
+        <v>355847</v>
       </c>
       <c r="H11" t="n">
-        <v>23397</v>
+        <v>23535</v>
       </c>
       <c r="I11" t="n">
-        <v>1814</v>
+        <v>1831</v>
       </c>
       <c r="J11" t="n">
-        <v>7526</v>
+        <v>7577</v>
       </c>
       <c r="K11" t="n">
-        <v>5638</v>
+        <v>5684</v>
       </c>
       <c r="L11" t="n">
-        <v>6204</v>
+        <v>6305</v>
       </c>
       <c r="M11" t="n">
-        <v>374552</v>
+        <v>378440</v>
       </c>
       <c r="N11" t="n">
-        <v>1617</v>
+        <v>1704</v>
       </c>
       <c r="O11" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P11" t="n">
-        <v>9148</v>
+        <v>9265</v>
       </c>
       <c r="Q11" t="n">
-        <v>6823</v>
+        <v>6917</v>
       </c>
       <c r="R11" t="n">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="S11" t="n">
-        <v>8951</v>
+        <v>9163</v>
       </c>
       <c r="T11" t="n">
-        <v>18484</v>
+        <v>18622</v>
       </c>
       <c r="U11" t="n">
-        <v>1924</v>
+        <v>1935</v>
       </c>
       <c r="V11" t="n">
-        <v>15007</v>
+        <v>15176</v>
       </c>
       <c r="W11" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X11" t="n">
-        <v>4473</v>
+        <v>4505</v>
       </c>
       <c r="Y11" t="n">
-        <v>1684</v>
+        <v>1694</v>
       </c>
       <c r="Z11" t="n">
-        <v>11303</v>
+        <v>11375</v>
       </c>
       <c r="AA11" t="n">
-        <v>7695</v>
+        <v>7746</v>
       </c>
       <c r="AB11" t="n">
-        <v>24014</v>
+        <v>24214</v>
       </c>
       <c r="AC11" t="n">
-        <v>8390</v>
+        <v>8549</v>
       </c>
       <c r="AD11" t="n">
-        <v>1977</v>
+        <v>2002</v>
       </c>
       <c r="AE11" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF11" t="n">
-        <v>18950</v>
+        <v>19149</v>
       </c>
       <c r="AG11" t="n">
-        <v>14620</v>
+        <v>14825</v>
       </c>
       <c r="AH11" t="n">
-        <v>16293</v>
+        <v>16642</v>
       </c>
       <c r="AI11" t="n">
-        <v>23692</v>
+        <v>23863</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6665</v>
+        <v>6716</v>
       </c>
       <c r="AK11" t="n">
-        <v>6745</v>
+        <v>6801</v>
       </c>
       <c r="AL11" t="n">
-        <v>11124</v>
+        <v>11218</v>
       </c>
       <c r="AM11" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AN11" t="n">
-        <v>23562</v>
+        <v>23751</v>
       </c>
       <c r="AO11" t="n">
-        <v>4770</v>
+        <v>4785</v>
       </c>
       <c r="AP11" t="n">
-        <v>34640</v>
+        <v>35077</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3346</v>
+        <v>3394</v>
       </c>
       <c r="AR11" t="n">
-        <v>8900</v>
+        <v>8975</v>
       </c>
       <c r="AS11" t="n">
-        <v>5114</v>
+        <v>5148</v>
       </c>
       <c r="AT11" t="n">
-        <v>1522</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17928</v>
+        <v>18057</v>
       </c>
       <c r="C12" t="n">
-        <v>4343</v>
+        <v>4355</v>
       </c>
       <c r="D12" t="n">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>24848</v>
+        <v>25007</v>
       </c>
       <c r="G12" t="n">
-        <v>352820</v>
+        <v>355852</v>
       </c>
       <c r="H12" t="n">
-        <v>23416</v>
+        <v>23513</v>
       </c>
       <c r="I12" t="n">
-        <v>1817</v>
+        <v>1832</v>
       </c>
       <c r="J12" t="n">
-        <v>7546</v>
+        <v>7581</v>
       </c>
       <c r="K12" t="n">
-        <v>5655</v>
+        <v>5706</v>
       </c>
       <c r="L12" t="n">
-        <v>6218</v>
+        <v>6300</v>
       </c>
       <c r="M12" t="n">
-        <v>375296</v>
+        <v>378440</v>
       </c>
       <c r="N12" t="n">
-        <v>1640</v>
+        <v>1710</v>
       </c>
       <c r="O12" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P12" t="n">
-        <v>9171</v>
+        <v>9307</v>
       </c>
       <c r="Q12" t="n">
-        <v>6843</v>
+        <v>6942</v>
       </c>
       <c r="R12" t="n">
         <v>1456</v>
       </c>
       <c r="S12" t="n">
-        <v>8990</v>
+        <v>9153</v>
       </c>
       <c r="T12" t="n">
-        <v>18492</v>
+        <v>18621</v>
       </c>
       <c r="U12" t="n">
-        <v>1928</v>
+        <v>1934</v>
       </c>
       <c r="V12" t="n">
-        <v>15045</v>
+        <v>15174</v>
       </c>
       <c r="W12" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X12" t="n">
-        <v>4482</v>
+        <v>4505</v>
       </c>
       <c r="Y12" t="n">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="Z12" t="n">
-        <v>11330</v>
+        <v>11374</v>
       </c>
       <c r="AA12" t="n">
-        <v>7717</v>
+        <v>7747</v>
       </c>
       <c r="AB12" t="n">
-        <v>24040</v>
+        <v>24190</v>
       </c>
       <c r="AC12" t="n">
-        <v>8430</v>
+        <v>8550</v>
       </c>
       <c r="AD12" t="n">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="AE12" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="n">
-        <v>18992</v>
+        <v>19122</v>
       </c>
       <c r="AG12" t="n">
-        <v>14654</v>
+        <v>14827</v>
       </c>
       <c r="AH12" t="n">
-        <v>16347</v>
+        <v>16656</v>
       </c>
       <c r="AI12" t="n">
-        <v>23722</v>
+        <v>23869</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6672</v>
+        <v>6704</v>
       </c>
       <c r="AK12" t="n">
-        <v>6756</v>
+        <v>6805</v>
       </c>
       <c r="AL12" t="n">
-        <v>11146</v>
+        <v>11214</v>
       </c>
       <c r="AM12" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AN12" t="n">
-        <v>23595</v>
+        <v>23739</v>
       </c>
       <c r="AO12" t="n">
-        <v>4770</v>
+        <v>4790</v>
       </c>
       <c r="AP12" t="n">
-        <v>34734</v>
+        <v>35072</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3357</v>
+        <v>3395</v>
       </c>
       <c r="AR12" t="n">
-        <v>8912</v>
+        <v>8981</v>
       </c>
       <c r="AS12" t="n">
-        <v>5118</v>
+        <v>5138</v>
       </c>
       <c r="AT12" t="n">
-        <v>1522</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18187</v>
+        <v>18124</v>
       </c>
       <c r="C13" t="n">
-        <v>4416</v>
+        <v>4447</v>
       </c>
       <c r="D13" t="n">
-        <v>1656</v>
+        <v>1665</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>22265</v>
+        <v>22084</v>
       </c>
       <c r="G13" t="n">
-        <v>347331</v>
+        <v>342875</v>
       </c>
       <c r="H13" t="n">
-        <v>21820</v>
+        <v>21709</v>
       </c>
       <c r="I13" t="n">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="J13" t="n">
-        <v>7323</v>
+        <v>7296</v>
       </c>
       <c r="K13" t="n">
-        <v>5624</v>
+        <v>5462</v>
       </c>
       <c r="L13" t="n">
-        <v>6355</v>
+        <v>6308</v>
       </c>
       <c r="M13" t="n">
-        <v>369794</v>
+        <v>364977</v>
       </c>
       <c r="N13" t="n">
-        <v>1782</v>
+        <v>1720</v>
       </c>
       <c r="O13" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P13" t="n">
-        <v>8829</v>
+        <v>8513</v>
       </c>
       <c r="Q13" t="n">
-        <v>7107</v>
+        <v>6971</v>
       </c>
       <c r="R13" t="n">
-        <v>1262</v>
+        <v>1243</v>
       </c>
       <c r="S13" t="n">
-        <v>8825</v>
+        <v>8628</v>
       </c>
       <c r="T13" t="n">
-        <v>18761</v>
+        <v>18421</v>
       </c>
       <c r="U13" t="n">
-        <v>2092</v>
+        <v>2082</v>
       </c>
       <c r="V13" t="n">
-        <v>15275</v>
+        <v>15094</v>
       </c>
       <c r="W13" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X13" t="n">
-        <v>4222</v>
+        <v>4139</v>
       </c>
       <c r="Y13" t="n">
-        <v>1973</v>
+        <v>1991</v>
       </c>
       <c r="Z13" t="n">
-        <v>12303</v>
+        <v>12194</v>
       </c>
       <c r="AA13" t="n">
-        <v>8238</v>
+        <v>8121</v>
       </c>
       <c r="AB13" t="n">
-        <v>24420</v>
+        <v>24216</v>
       </c>
       <c r="AC13" t="n">
-        <v>8283</v>
+        <v>8028</v>
       </c>
       <c r="AD13" t="n">
-        <v>1985</v>
+        <v>1928</v>
       </c>
       <c r="AE13" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="n">
-        <v>18185</v>
+        <v>18009</v>
       </c>
       <c r="AG13" t="n">
-        <v>13760</v>
+        <v>13622</v>
       </c>
       <c r="AH13" t="n">
-        <v>17694</v>
+        <v>17226</v>
       </c>
       <c r="AI13" t="n">
-        <v>23861</v>
+        <v>23705</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6658</v>
+        <v>6615</v>
       </c>
       <c r="AK13" t="n">
-        <v>6050</v>
+        <v>6000</v>
       </c>
       <c r="AL13" t="n">
-        <v>10160</v>
+        <v>9908</v>
       </c>
       <c r="AM13" t="n">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="AN13" t="n">
-        <v>23526</v>
+        <v>23141</v>
       </c>
       <c r="AO13" t="n">
-        <v>4555</v>
+        <v>4492</v>
       </c>
       <c r="AP13" t="n">
-        <v>34438</v>
+        <v>33956</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3118</v>
+        <v>2993</v>
       </c>
       <c r="AR13" t="n">
-        <v>8237</v>
+        <v>8146</v>
       </c>
       <c r="AS13" t="n">
-        <v>5139</v>
+        <v>5044</v>
       </c>
       <c r="AT13" t="n">
-        <v>1230</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18252</v>
+        <v>18120</v>
       </c>
       <c r="C14" t="n">
-        <v>4432</v>
+        <v>4447</v>
       </c>
       <c r="D14" t="n">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>22356</v>
+        <v>22094</v>
       </c>
       <c r="G14" t="n">
-        <v>348947</v>
+        <v>342987</v>
       </c>
       <c r="H14" t="n">
-        <v>21879</v>
+        <v>21712</v>
       </c>
       <c r="I14" t="n">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="J14" t="n">
-        <v>7346</v>
+        <v>7294</v>
       </c>
       <c r="K14" t="n">
-        <v>5637</v>
+        <v>5466</v>
       </c>
       <c r="L14" t="n">
-        <v>6390</v>
+        <v>6309</v>
       </c>
       <c r="M14" t="n">
-        <v>371517</v>
+        <v>365083</v>
       </c>
       <c r="N14" t="n">
-        <v>1824</v>
+        <v>1722</v>
       </c>
       <c r="O14" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P14" t="n">
-        <v>8860</v>
+        <v>8526</v>
       </c>
       <c r="Q14" t="n">
-        <v>7145</v>
+        <v>6976</v>
       </c>
       <c r="R14" t="n">
-        <v>1268</v>
+        <v>1243</v>
       </c>
       <c r="S14" t="n">
-        <v>8900</v>
+        <v>8636</v>
       </c>
       <c r="T14" t="n">
-        <v>18827</v>
+        <v>18414</v>
       </c>
       <c r="U14" t="n">
-        <v>2094</v>
+        <v>2083</v>
       </c>
       <c r="V14" t="n">
-        <v>15343</v>
+        <v>15110</v>
       </c>
       <c r="W14" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X14" t="n">
-        <v>4230</v>
+        <v>4137</v>
       </c>
       <c r="Y14" t="n">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="Z14" t="n">
-        <v>12353</v>
+        <v>12182</v>
       </c>
       <c r="AA14" t="n">
-        <v>8283</v>
+        <v>8129</v>
       </c>
       <c r="AB14" t="n">
-        <v>24511</v>
+        <v>24219</v>
       </c>
       <c r="AC14" t="n">
-        <v>8362</v>
+        <v>8031</v>
       </c>
       <c r="AD14" t="n">
-        <v>2005</v>
+        <v>1931</v>
       </c>
       <c r="AE14" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="n">
-        <v>18305</v>
+        <v>18014</v>
       </c>
       <c r="AG14" t="n">
-        <v>13828</v>
+        <v>13624</v>
       </c>
       <c r="AH14" t="n">
-        <v>17801</v>
+        <v>17249</v>
       </c>
       <c r="AI14" t="n">
-        <v>23959</v>
+        <v>23704</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6680</v>
+        <v>6618</v>
       </c>
       <c r="AK14" t="n">
-        <v>6065</v>
+        <v>6002</v>
       </c>
       <c r="AL14" t="n">
-        <v>10217</v>
+        <v>9914</v>
       </c>
       <c r="AM14" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AN14" t="n">
-        <v>23627</v>
+        <v>23141</v>
       </c>
       <c r="AO14" t="n">
-        <v>4569</v>
+        <v>4499</v>
       </c>
       <c r="AP14" t="n">
-        <v>34616</v>
+        <v>33955</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3150</v>
+        <v>2999</v>
       </c>
       <c r="AR14" t="n">
-        <v>8272</v>
+        <v>8154</v>
       </c>
       <c r="AS14" t="n">
-        <v>5173</v>
+        <v>5050</v>
       </c>
       <c r="AT14" t="n">
-        <v>1236</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18306</v>
+        <v>18119</v>
       </c>
       <c r="C15" t="n">
-        <v>4451</v>
+        <v>4445</v>
       </c>
       <c r="D15" t="n">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>22401</v>
+        <v>22116</v>
       </c>
       <c r="G15" t="n">
-        <v>350166</v>
+        <v>343122</v>
       </c>
       <c r="H15" t="n">
-        <v>21945</v>
+        <v>21728</v>
       </c>
       <c r="I15" t="n">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="J15" t="n">
-        <v>7382</v>
+        <v>7290</v>
       </c>
       <c r="K15" t="n">
-        <v>5663</v>
+        <v>5477</v>
       </c>
       <c r="L15" t="n">
-        <v>6410</v>
+        <v>6306</v>
       </c>
       <c r="M15" t="n">
-        <v>372822</v>
+        <v>365232</v>
       </c>
       <c r="N15" t="n">
-        <v>1835</v>
+        <v>1725</v>
       </c>
       <c r="O15" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="P15" t="n">
-        <v>8901</v>
+        <v>8545</v>
       </c>
       <c r="Q15" t="n">
-        <v>7167</v>
+        <v>6982</v>
       </c>
       <c r="R15" t="n">
-        <v>1272</v>
+        <v>1241</v>
       </c>
       <c r="S15" t="n">
-        <v>8960</v>
+        <v>8637</v>
       </c>
       <c r="T15" t="n">
-        <v>18864</v>
+        <v>18424</v>
       </c>
       <c r="U15" t="n">
-        <v>2098</v>
+        <v>2083</v>
       </c>
       <c r="V15" t="n">
-        <v>15396</v>
+        <v>15121</v>
       </c>
       <c r="W15" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X15" t="n">
-        <v>4239</v>
+        <v>4142</v>
       </c>
       <c r="Y15" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="Z15" t="n">
-        <v>12396</v>
+        <v>12189</v>
       </c>
       <c r="AA15" t="n">
-        <v>8318</v>
+        <v>8134</v>
       </c>
       <c r="AB15" t="n">
-        <v>24585</v>
+        <v>24226</v>
       </c>
       <c r="AC15" t="n">
-        <v>8386</v>
+        <v>8035</v>
       </c>
       <c r="AD15" t="n">
-        <v>2011</v>
+        <v>1932</v>
       </c>
       <c r="AE15" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="n">
-        <v>18362</v>
+        <v>18020</v>
       </c>
       <c r="AG15" t="n">
-        <v>13876</v>
+        <v>13628</v>
       </c>
       <c r="AH15" t="n">
-        <v>17918</v>
+        <v>17270</v>
       </c>
       <c r="AI15" t="n">
-        <v>24024</v>
+        <v>23703</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6688</v>
+        <v>6614</v>
       </c>
       <c r="AK15" t="n">
-        <v>6083</v>
+        <v>6004</v>
       </c>
       <c r="AL15" t="n">
-        <v>10260</v>
+        <v>9921</v>
       </c>
       <c r="AM15" t="n">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="AN15" t="n">
-        <v>23706</v>
+        <v>23122</v>
       </c>
       <c r="AO15" t="n">
-        <v>4588</v>
+        <v>4499</v>
       </c>
       <c r="AP15" t="n">
-        <v>34774</v>
+        <v>33961</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3174</v>
+        <v>3001</v>
       </c>
       <c r="AR15" t="n">
-        <v>8291</v>
+        <v>8166</v>
       </c>
       <c r="AS15" t="n">
-        <v>5193</v>
+        <v>5055</v>
       </c>
       <c r="AT15" t="n">
-        <v>1239</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18124</v>
+        <v>18129</v>
       </c>
       <c r="C16" t="n">
-        <v>4447</v>
+        <v>4445</v>
       </c>
       <c r="D16" t="n">
-        <v>1665</v>
+        <v>1653</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>22084</v>
+        <v>22128</v>
       </c>
       <c r="G16" t="n">
-        <v>342875</v>
+        <v>343447</v>
       </c>
       <c r="H16" t="n">
-        <v>21709</v>
+        <v>21742</v>
       </c>
       <c r="I16" t="n">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="J16" t="n">
-        <v>7296</v>
+        <v>7300</v>
       </c>
       <c r="K16" t="n">
-        <v>5462</v>
+        <v>5491</v>
       </c>
       <c r="L16" t="n">
-        <v>6308</v>
+        <v>6288</v>
       </c>
       <c r="M16" t="n">
-        <v>364977</v>
+        <v>365599</v>
       </c>
       <c r="N16" t="n">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="O16" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" t="n">
-        <v>8513</v>
+        <v>8570</v>
       </c>
       <c r="Q16" t="n">
-        <v>6971</v>
+        <v>6992</v>
       </c>
       <c r="R16" t="n">
-        <v>1243</v>
+        <v>1250</v>
       </c>
       <c r="S16" t="n">
-        <v>8628</v>
+        <v>8670</v>
       </c>
       <c r="T16" t="n">
-        <v>18421</v>
+        <v>18422</v>
       </c>
       <c r="U16" t="n">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="V16" t="n">
-        <v>15094</v>
+        <v>15138</v>
       </c>
       <c r="W16" t="n">
         <v>108</v>
       </c>
       <c r="X16" t="n">
-        <v>4139</v>
+        <v>4157</v>
       </c>
       <c r="Y16" t="n">
-        <v>1991</v>
+        <v>1975</v>
       </c>
       <c r="Z16" t="n">
-        <v>12194</v>
+        <v>12201</v>
       </c>
       <c r="AA16" t="n">
-        <v>8121</v>
+        <v>8150</v>
       </c>
       <c r="AB16" t="n">
-        <v>24216</v>
+        <v>24254</v>
       </c>
       <c r="AC16" t="n">
-        <v>8028</v>
+        <v>8070</v>
       </c>
       <c r="AD16" t="n">
-        <v>1928</v>
+        <v>1941</v>
       </c>
       <c r="AE16" t="n">
         <v>109</v>
       </c>
       <c r="AF16" t="n">
-        <v>18009</v>
+        <v>18038</v>
       </c>
       <c r="AG16" t="n">
-        <v>13622</v>
+        <v>13631</v>
       </c>
       <c r="AH16" t="n">
-        <v>17226</v>
+        <v>17310</v>
       </c>
       <c r="AI16" t="n">
-        <v>23705</v>
+        <v>23716</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6615</v>
+        <v>6622</v>
       </c>
       <c r="AK16" t="n">
-        <v>6000</v>
+        <v>6006</v>
       </c>
       <c r="AL16" t="n">
-        <v>9908</v>
+        <v>9951</v>
       </c>
       <c r="AM16" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="AN16" t="n">
-        <v>23141</v>
+        <v>23120</v>
       </c>
       <c r="AO16" t="n">
-        <v>4492</v>
+        <v>4498</v>
       </c>
       <c r="AP16" t="n">
-        <v>33956</v>
+        <v>33994</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2993</v>
+        <v>3007</v>
       </c>
       <c r="AR16" t="n">
-        <v>8146</v>
+        <v>8171</v>
       </c>
       <c r="AS16" t="n">
-        <v>5044</v>
+        <v>5064</v>
       </c>
       <c r="AT16" t="n">
-        <v>1207</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18120</v>
+        <v>18163</v>
       </c>
       <c r="C17" t="n">
-        <v>4447</v>
+        <v>4443</v>
       </c>
       <c r="D17" t="n">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>22094</v>
+        <v>22173</v>
       </c>
       <c r="G17" t="n">
-        <v>342987</v>
+        <v>344005</v>
       </c>
       <c r="H17" t="n">
-        <v>21712</v>
+        <v>21771</v>
       </c>
       <c r="I17" t="n">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="J17" t="n">
-        <v>7294</v>
+        <v>7300</v>
       </c>
       <c r="K17" t="n">
-        <v>5466</v>
+        <v>5497</v>
       </c>
       <c r="L17" t="n">
-        <v>6309</v>
+        <v>6293</v>
       </c>
       <c r="M17" t="n">
-        <v>365083</v>
+        <v>366187</v>
       </c>
       <c r="N17" t="n">
-        <v>1722</v>
+        <v>1736</v>
       </c>
       <c r="O17" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P17" t="n">
-        <v>8526</v>
+        <v>8582</v>
       </c>
       <c r="Q17" t="n">
-        <v>6976</v>
+        <v>7017</v>
       </c>
       <c r="R17" t="n">
-        <v>1243</v>
+        <v>1253</v>
       </c>
       <c r="S17" t="n">
-        <v>8636</v>
+        <v>8692</v>
       </c>
       <c r="T17" t="n">
-        <v>18414</v>
+        <v>18435</v>
       </c>
       <c r="U17" t="n">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="V17" t="n">
-        <v>15110</v>
+        <v>15154</v>
       </c>
       <c r="W17" t="n">
         <v>108</v>
       </c>
       <c r="X17" t="n">
-        <v>4137</v>
+        <v>4165</v>
       </c>
       <c r="Y17" t="n">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="Z17" t="n">
-        <v>12182</v>
+        <v>12201</v>
       </c>
       <c r="AA17" t="n">
-        <v>8129</v>
+        <v>8146</v>
       </c>
       <c r="AB17" t="n">
-        <v>24219</v>
+        <v>24281</v>
       </c>
       <c r="AC17" t="n">
-        <v>8031</v>
+        <v>8102</v>
       </c>
       <c r="AD17" t="n">
-        <v>1931</v>
+        <v>1951</v>
       </c>
       <c r="AE17" t="n">
         <v>109</v>
       </c>
       <c r="AF17" t="n">
-        <v>18014</v>
+        <v>18078</v>
       </c>
       <c r="AG17" t="n">
-        <v>13624</v>
+        <v>13636</v>
       </c>
       <c r="AH17" t="n">
-        <v>17249</v>
+        <v>17368</v>
       </c>
       <c r="AI17" t="n">
-        <v>23704</v>
+        <v>23734</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6618</v>
+        <v>6633</v>
       </c>
       <c r="AK17" t="n">
-        <v>6002</v>
+        <v>6017</v>
       </c>
       <c r="AL17" t="n">
-        <v>9914</v>
+        <v>9981</v>
       </c>
       <c r="AM17" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AN17" t="n">
-        <v>23141</v>
+        <v>23146</v>
       </c>
       <c r="AO17" t="n">
-        <v>4499</v>
+        <v>4504</v>
       </c>
       <c r="AP17" t="n">
-        <v>33955</v>
+        <v>34070</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2999</v>
+        <v>3023</v>
       </c>
       <c r="AR17" t="n">
-        <v>8154</v>
+        <v>8181</v>
       </c>
       <c r="AS17" t="n">
-        <v>5050</v>
+        <v>5079</v>
       </c>
       <c r="AT17" t="n">
-        <v>1209</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18119</v>
+        <v>18201</v>
       </c>
       <c r="C18" t="n">
-        <v>4445</v>
+        <v>4447</v>
       </c>
       <c r="D18" t="n">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>22116</v>
+        <v>22210</v>
       </c>
       <c r="G18" t="n">
-        <v>343122</v>
+        <v>344725</v>
       </c>
       <c r="H18" t="n">
-        <v>21728</v>
+        <v>21799</v>
       </c>
       <c r="I18" t="n">
         <v>1816</v>
       </c>
       <c r="J18" t="n">
-        <v>7290</v>
+        <v>7309</v>
       </c>
       <c r="K18" t="n">
-        <v>5477</v>
+        <v>5500</v>
       </c>
       <c r="L18" t="n">
-        <v>6306</v>
+        <v>6312</v>
       </c>
       <c r="M18" t="n">
-        <v>365232</v>
+        <v>366962</v>
       </c>
       <c r="N18" t="n">
-        <v>1725</v>
+        <v>1751</v>
       </c>
       <c r="O18" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P18" t="n">
-        <v>8545</v>
+        <v>8597</v>
       </c>
       <c r="Q18" t="n">
-        <v>6982</v>
+        <v>7032</v>
       </c>
       <c r="R18" t="n">
-        <v>1241</v>
+        <v>1255</v>
       </c>
       <c r="S18" t="n">
-        <v>8637</v>
+        <v>8723</v>
       </c>
       <c r="T18" t="n">
-        <v>18424</v>
+        <v>18471</v>
       </c>
       <c r="U18" t="n">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="V18" t="n">
-        <v>15121</v>
+        <v>15200</v>
       </c>
       <c r="W18" t="n">
         <v>108</v>
       </c>
       <c r="X18" t="n">
-        <v>4142</v>
+        <v>4173</v>
       </c>
       <c r="Y18" t="n">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="Z18" t="n">
-        <v>12189</v>
+        <v>12223</v>
       </c>
       <c r="AA18" t="n">
-        <v>8134</v>
+        <v>8164</v>
       </c>
       <c r="AB18" t="n">
-        <v>24226</v>
+        <v>24331</v>
       </c>
       <c r="AC18" t="n">
-        <v>8035</v>
+        <v>8160</v>
       </c>
       <c r="AD18" t="n">
-        <v>1932</v>
+        <v>1957</v>
       </c>
       <c r="AE18" t="n">
         <v>109</v>
       </c>
       <c r="AF18" t="n">
-        <v>18020</v>
+        <v>18101</v>
       </c>
       <c r="AG18" t="n">
-        <v>13628</v>
+        <v>13658</v>
       </c>
       <c r="AH18" t="n">
-        <v>17270</v>
+        <v>17414</v>
       </c>
       <c r="AI18" t="n">
-        <v>23703</v>
+        <v>23759</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6614</v>
+        <v>6646</v>
       </c>
       <c r="AK18" t="n">
-        <v>6004</v>
+        <v>6025</v>
       </c>
       <c r="AL18" t="n">
-        <v>9921</v>
+        <v>10014</v>
       </c>
       <c r="AM18" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AN18" t="n">
-        <v>23122</v>
+        <v>23185</v>
       </c>
       <c r="AO18" t="n">
-        <v>4499</v>
+        <v>4511</v>
       </c>
       <c r="AP18" t="n">
-        <v>33961</v>
+        <v>34171</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3001</v>
+        <v>3043</v>
       </c>
       <c r="AR18" t="n">
-        <v>8166</v>
+        <v>8194</v>
       </c>
       <c r="AS18" t="n">
-        <v>5055</v>
+        <v>5089</v>
       </c>
       <c r="AT18" t="n">
-        <v>1212</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18129</v>
+        <v>18115</v>
       </c>
       <c r="C19" t="n">
-        <v>4445</v>
+        <v>4397</v>
       </c>
       <c r="D19" t="n">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>22128</v>
+        <v>22166</v>
       </c>
       <c r="G19" t="n">
-        <v>343447</v>
+        <v>345362</v>
       </c>
       <c r="H19" t="n">
-        <v>21742</v>
+        <v>21745</v>
       </c>
       <c r="I19" t="n">
-        <v>1816</v>
+        <v>1801</v>
       </c>
       <c r="J19" t="n">
-        <v>7300</v>
+        <v>7307</v>
       </c>
       <c r="K19" t="n">
-        <v>5491</v>
+        <v>5594</v>
       </c>
       <c r="L19" t="n">
-        <v>6288</v>
+        <v>6313</v>
       </c>
       <c r="M19" t="n">
-        <v>365599</v>
+        <v>367678</v>
       </c>
       <c r="N19" t="n">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="O19" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P19" t="n">
-        <v>8570</v>
+        <v>8790</v>
       </c>
       <c r="Q19" t="n">
-        <v>6992</v>
+        <v>7064</v>
       </c>
       <c r="R19" t="n">
-        <v>1250</v>
+        <v>1257</v>
       </c>
       <c r="S19" t="n">
-        <v>8670</v>
+        <v>8737</v>
       </c>
       <c r="T19" t="n">
-        <v>18422</v>
+        <v>18687</v>
       </c>
       <c r="U19" t="n">
-        <v>2076</v>
+        <v>2082</v>
       </c>
       <c r="V19" t="n">
-        <v>15138</v>
+        <v>15185</v>
       </c>
       <c r="W19" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X19" t="n">
-        <v>4157</v>
+        <v>4198</v>
       </c>
       <c r="Y19" t="n">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="Z19" t="n">
-        <v>12201</v>
+        <v>12224</v>
       </c>
       <c r="AA19" t="n">
-        <v>8150</v>
+        <v>8176</v>
       </c>
       <c r="AB19" t="n">
-        <v>24254</v>
+        <v>24317</v>
       </c>
       <c r="AC19" t="n">
-        <v>8070</v>
+        <v>8209</v>
       </c>
       <c r="AD19" t="n">
-        <v>1941</v>
+        <v>1973</v>
       </c>
       <c r="AE19" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="n">
-        <v>18038</v>
+        <v>18064</v>
       </c>
       <c r="AG19" t="n">
-        <v>13631</v>
+        <v>13660</v>
       </c>
       <c r="AH19" t="n">
-        <v>17310</v>
+        <v>17509</v>
       </c>
       <c r="AI19" t="n">
-        <v>23716</v>
+        <v>23772</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6622</v>
+        <v>6630</v>
       </c>
       <c r="AK19" t="n">
-        <v>6006</v>
+        <v>6019</v>
       </c>
       <c r="AL19" t="n">
-        <v>9951</v>
+        <v>10092</v>
       </c>
       <c r="AM19" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AN19" t="n">
-        <v>23120</v>
+        <v>23408</v>
       </c>
       <c r="AO19" t="n">
-        <v>4498</v>
+        <v>4539</v>
       </c>
       <c r="AP19" t="n">
-        <v>33994</v>
+        <v>34168</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3007</v>
+        <v>3083</v>
       </c>
       <c r="AR19" t="n">
-        <v>8171</v>
+        <v>8195</v>
       </c>
       <c r="AS19" t="n">
-        <v>5064</v>
+        <v>5113</v>
       </c>
       <c r="AT19" t="n">
-        <v>1211</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18163</v>
+        <v>18139</v>
       </c>
       <c r="C20" t="n">
-        <v>4443</v>
+        <v>4405</v>
       </c>
       <c r="D20" t="n">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>22173</v>
+        <v>22218</v>
       </c>
       <c r="G20" t="n">
-        <v>344005</v>
+        <v>346289</v>
       </c>
       <c r="H20" t="n">
-        <v>21771</v>
+        <v>21786</v>
       </c>
       <c r="I20" t="n">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="J20" t="n">
-        <v>7300</v>
+        <v>7321</v>
       </c>
       <c r="K20" t="n">
-        <v>5497</v>
+        <v>5606</v>
       </c>
       <c r="L20" t="n">
-        <v>6293</v>
+        <v>6342</v>
       </c>
       <c r="M20" t="n">
-        <v>366187</v>
+        <v>368666</v>
       </c>
       <c r="N20" t="n">
-        <v>1736</v>
+        <v>1751</v>
       </c>
       <c r="O20" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P20" t="n">
-        <v>8582</v>
+        <v>8809</v>
       </c>
       <c r="Q20" t="n">
-        <v>7017</v>
+        <v>7091</v>
       </c>
       <c r="R20" t="n">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="S20" t="n">
-        <v>8692</v>
+        <v>8778</v>
       </c>
       <c r="T20" t="n">
-        <v>18435</v>
+        <v>18721</v>
       </c>
       <c r="U20" t="n">
-        <v>2077</v>
+        <v>2086</v>
       </c>
       <c r="V20" t="n">
-        <v>15154</v>
+        <v>15223</v>
       </c>
       <c r="W20" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X20" t="n">
-        <v>4165</v>
+        <v>4206</v>
       </c>
       <c r="Y20" t="n">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="Z20" t="n">
-        <v>12201</v>
+        <v>12262</v>
       </c>
       <c r="AA20" t="n">
-        <v>8146</v>
+        <v>8206</v>
       </c>
       <c r="AB20" t="n">
-        <v>24281</v>
+        <v>24372</v>
       </c>
       <c r="AC20" t="n">
-        <v>8102</v>
+        <v>8244</v>
       </c>
       <c r="AD20" t="n">
-        <v>1951</v>
+        <v>1979</v>
       </c>
       <c r="AE20" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="n">
-        <v>18078</v>
+        <v>18130</v>
       </c>
       <c r="AG20" t="n">
-        <v>13636</v>
+        <v>13702</v>
       </c>
       <c r="AH20" t="n">
-        <v>17368</v>
+        <v>17593</v>
       </c>
       <c r="AI20" t="n">
-        <v>23734</v>
+        <v>23817</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6633</v>
+        <v>6641</v>
       </c>
       <c r="AK20" t="n">
-        <v>6017</v>
+        <v>6034</v>
       </c>
       <c r="AL20" t="n">
-        <v>9981</v>
+        <v>10115</v>
       </c>
       <c r="AM20" t="n">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AN20" t="n">
-        <v>23146</v>
+        <v>23464</v>
       </c>
       <c r="AO20" t="n">
-        <v>4504</v>
+        <v>4551</v>
       </c>
       <c r="AP20" t="n">
-        <v>34070</v>
+        <v>34274</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3023</v>
+        <v>3094</v>
       </c>
       <c r="AR20" t="n">
-        <v>8181</v>
+        <v>8214</v>
       </c>
       <c r="AS20" t="n">
-        <v>5079</v>
+        <v>5127</v>
       </c>
       <c r="AT20" t="n">
-        <v>1213</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18201</v>
+        <v>18187</v>
       </c>
       <c r="C21" t="n">
-        <v>4447</v>
+        <v>4416</v>
       </c>
       <c r="D21" t="n">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>22210</v>
+        <v>22265</v>
       </c>
       <c r="G21" t="n">
-        <v>344725</v>
+        <v>347331</v>
       </c>
       <c r="H21" t="n">
-        <v>21799</v>
+        <v>21820</v>
       </c>
       <c r="I21" t="n">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="J21" t="n">
-        <v>7309</v>
+        <v>7323</v>
       </c>
       <c r="K21" t="n">
-        <v>5500</v>
+        <v>5624</v>
       </c>
       <c r="L21" t="n">
-        <v>6312</v>
+        <v>6355</v>
       </c>
       <c r="M21" t="n">
-        <v>366962</v>
+        <v>369794</v>
       </c>
       <c r="N21" t="n">
-        <v>1751</v>
+        <v>1782</v>
       </c>
       <c r="O21" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P21" t="n">
-        <v>8597</v>
+        <v>8829</v>
       </c>
       <c r="Q21" t="n">
-        <v>7032</v>
+        <v>7107</v>
       </c>
       <c r="R21" t="n">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="S21" t="n">
-        <v>8723</v>
+        <v>8825</v>
       </c>
       <c r="T21" t="n">
-        <v>18471</v>
+        <v>18761</v>
       </c>
       <c r="U21" t="n">
-        <v>2079</v>
+        <v>2092</v>
       </c>
       <c r="V21" t="n">
-        <v>15200</v>
+        <v>15275</v>
       </c>
       <c r="W21" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X21" t="n">
-        <v>4173</v>
+        <v>4222</v>
       </c>
       <c r="Y21" t="n">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="Z21" t="n">
-        <v>12223</v>
+        <v>12303</v>
       </c>
       <c r="AA21" t="n">
-        <v>8164</v>
+        <v>8238</v>
       </c>
       <c r="AB21" t="n">
-        <v>24331</v>
+        <v>24420</v>
       </c>
       <c r="AC21" t="n">
-        <v>8160</v>
+        <v>8283</v>
       </c>
       <c r="AD21" t="n">
-        <v>1957</v>
+        <v>1985</v>
       </c>
       <c r="AE21" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF21" t="n">
-        <v>18101</v>
+        <v>18185</v>
       </c>
       <c r="AG21" t="n">
-        <v>13658</v>
+        <v>13760</v>
       </c>
       <c r="AH21" t="n">
-        <v>17414</v>
+        <v>17694</v>
       </c>
       <c r="AI21" t="n">
-        <v>23759</v>
+        <v>23861</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6646</v>
+        <v>6658</v>
       </c>
       <c r="AK21" t="n">
-        <v>6025</v>
+        <v>6050</v>
       </c>
       <c r="AL21" t="n">
-        <v>10014</v>
+        <v>10160</v>
       </c>
       <c r="AM21" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AN21" t="n">
-        <v>23185</v>
+        <v>23526</v>
       </c>
       <c r="AO21" t="n">
-        <v>4511</v>
+        <v>4555</v>
       </c>
       <c r="AP21" t="n">
-        <v>34171</v>
+        <v>34438</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3043</v>
+        <v>3118</v>
       </c>
       <c r="AR21" t="n">
-        <v>8194</v>
+        <v>8237</v>
       </c>
       <c r="AS21" t="n">
-        <v>5089</v>
+        <v>5139</v>
       </c>
       <c r="AT21" t="n">
-        <v>1216</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18115</v>
+        <v>18252</v>
       </c>
       <c r="C22" t="n">
-        <v>4397</v>
+        <v>4432</v>
       </c>
       <c r="D22" t="n">
-        <v>1648</v>
+        <v>1660</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>22166</v>
+        <v>22356</v>
       </c>
       <c r="G22" t="n">
-        <v>345362</v>
+        <v>348947</v>
       </c>
       <c r="H22" t="n">
-        <v>21745</v>
+        <v>21879</v>
       </c>
       <c r="I22" t="n">
-        <v>1801</v>
+        <v>1820</v>
       </c>
       <c r="J22" t="n">
-        <v>7307</v>
+        <v>7346</v>
       </c>
       <c r="K22" t="n">
-        <v>5594</v>
+        <v>5637</v>
       </c>
       <c r="L22" t="n">
-        <v>6313</v>
+        <v>6390</v>
       </c>
       <c r="M22" t="n">
-        <v>367678</v>
+        <v>371517</v>
       </c>
       <c r="N22" t="n">
-        <v>1734</v>
+        <v>1824</v>
       </c>
       <c r="O22" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P22" t="n">
-        <v>8790</v>
+        <v>8860</v>
       </c>
       <c r="Q22" t="n">
-        <v>7064</v>
+        <v>7145</v>
       </c>
       <c r="R22" t="n">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="S22" t="n">
-        <v>8737</v>
+        <v>8900</v>
       </c>
       <c r="T22" t="n">
-        <v>18687</v>
+        <v>18827</v>
       </c>
       <c r="U22" t="n">
-        <v>2082</v>
+        <v>2094</v>
       </c>
       <c r="V22" t="n">
-        <v>15185</v>
+        <v>15343</v>
       </c>
       <c r="W22" t="n">
         <v>106</v>
       </c>
       <c r="X22" t="n">
-        <v>4198</v>
+        <v>4230</v>
       </c>
       <c r="Y22" t="n">
-        <v>1966</v>
+        <v>1976</v>
       </c>
       <c r="Z22" t="n">
-        <v>12224</v>
+        <v>12353</v>
       </c>
       <c r="AA22" t="n">
-        <v>8176</v>
+        <v>8283</v>
       </c>
       <c r="AB22" t="n">
-        <v>24317</v>
+        <v>24511</v>
       </c>
       <c r="AC22" t="n">
-        <v>8209</v>
+        <v>8362</v>
       </c>
       <c r="AD22" t="n">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="AE22" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="n">
-        <v>18064</v>
+        <v>18305</v>
       </c>
       <c r="AG22" t="n">
-        <v>13660</v>
+        <v>13828</v>
       </c>
       <c r="AH22" t="n">
-        <v>17509</v>
+        <v>17801</v>
       </c>
       <c r="AI22" t="n">
-        <v>23772</v>
+        <v>23959</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6630</v>
+        <v>6680</v>
       </c>
       <c r="AK22" t="n">
-        <v>6019</v>
+        <v>6065</v>
       </c>
       <c r="AL22" t="n">
-        <v>10092</v>
+        <v>10217</v>
       </c>
       <c r="AM22" t="n">
         <v>397</v>
       </c>
       <c r="AN22" t="n">
-        <v>23408</v>
+        <v>23627</v>
       </c>
       <c r="AO22" t="n">
-        <v>4539</v>
+        <v>4569</v>
       </c>
       <c r="AP22" t="n">
-        <v>34168</v>
+        <v>34616</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3083</v>
+        <v>3150</v>
       </c>
       <c r="AR22" t="n">
-        <v>8195</v>
+        <v>8272</v>
       </c>
       <c r="AS22" t="n">
-        <v>5113</v>
+        <v>5173</v>
       </c>
       <c r="AT22" t="n">
-        <v>1226</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18139</v>
+        <v>18306</v>
       </c>
       <c r="C23" t="n">
-        <v>4405</v>
+        <v>4451</v>
       </c>
       <c r="D23" t="n">
-        <v>1648</v>
+        <v>1673</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>22218</v>
+        <v>22401</v>
       </c>
       <c r="G23" t="n">
-        <v>346289</v>
+        <v>350166</v>
       </c>
       <c r="H23" t="n">
-        <v>21786</v>
+        <v>21945</v>
       </c>
       <c r="I23" t="n">
-        <v>1806</v>
+        <v>1823</v>
       </c>
       <c r="J23" t="n">
-        <v>7321</v>
+        <v>7382</v>
       </c>
       <c r="K23" t="n">
-        <v>5606</v>
+        <v>5663</v>
       </c>
       <c r="L23" t="n">
-        <v>6342</v>
+        <v>6410</v>
       </c>
       <c r="M23" t="n">
-        <v>368666</v>
+        <v>372822</v>
       </c>
       <c r="N23" t="n">
-        <v>1751</v>
+        <v>1835</v>
       </c>
       <c r="O23" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P23" t="n">
-        <v>8809</v>
+        <v>8901</v>
       </c>
       <c r="Q23" t="n">
-        <v>7091</v>
+        <v>7167</v>
       </c>
       <c r="R23" t="n">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="S23" t="n">
-        <v>8778</v>
+        <v>8960</v>
       </c>
       <c r="T23" t="n">
-        <v>18721</v>
+        <v>18864</v>
       </c>
       <c r="U23" t="n">
-        <v>2086</v>
+        <v>2098</v>
       </c>
       <c r="V23" t="n">
-        <v>15223</v>
+        <v>15396</v>
       </c>
       <c r="W23" t="n">
         <v>106</v>
       </c>
       <c r="X23" t="n">
-        <v>4206</v>
+        <v>4239</v>
       </c>
       <c r="Y23" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="Z23" t="n">
-        <v>12262</v>
+        <v>12396</v>
       </c>
       <c r="AA23" t="n">
-        <v>8206</v>
+        <v>8318</v>
       </c>
       <c r="AB23" t="n">
-        <v>24372</v>
+        <v>24585</v>
       </c>
       <c r="AC23" t="n">
-        <v>8244</v>
+        <v>8386</v>
       </c>
       <c r="AD23" t="n">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="AE23" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF23" t="n">
-        <v>18130</v>
+        <v>18362</v>
       </c>
       <c r="AG23" t="n">
-        <v>13702</v>
+        <v>13876</v>
       </c>
       <c r="AH23" t="n">
-        <v>17593</v>
+        <v>17918</v>
       </c>
       <c r="AI23" t="n">
-        <v>23817</v>
+        <v>24024</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6641</v>
+        <v>6688</v>
       </c>
       <c r="AK23" t="n">
-        <v>6034</v>
+        <v>6083</v>
       </c>
       <c r="AL23" t="n">
-        <v>10115</v>
+        <v>10260</v>
       </c>
       <c r="AM23" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN23" t="n">
-        <v>23464</v>
+        <v>23706</v>
       </c>
       <c r="AO23" t="n">
-        <v>4551</v>
+        <v>4588</v>
       </c>
       <c r="AP23" t="n">
-        <v>34274</v>
+        <v>34774</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3094</v>
+        <v>3174</v>
       </c>
       <c r="AR23" t="n">
-        <v>8214</v>
+        <v>8291</v>
       </c>
       <c r="AS23" t="n">
-        <v>5127</v>
+        <v>5193</v>
       </c>
       <c r="AT23" t="n">
-        <v>1226</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19246</v>
+        <v>19034</v>
       </c>
       <c r="C24" t="n">
-        <v>4885</v>
+        <v>4842</v>
       </c>
       <c r="D24" t="n">
-        <v>1662</v>
+        <v>1689</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>21312</v>
+        <v>21027</v>
       </c>
       <c r="G24" t="n">
-        <v>356320</v>
+        <v>350518</v>
       </c>
       <c r="H24" t="n">
-        <v>21629</v>
+        <v>21537</v>
       </c>
       <c r="I24" t="n">
-        <v>1894</v>
+        <v>1852</v>
       </c>
       <c r="J24" t="n">
-        <v>7602</v>
+        <v>7333</v>
       </c>
       <c r="K24" t="n">
-        <v>5663</v>
+        <v>5602</v>
       </c>
       <c r="L24" t="n">
-        <v>6506</v>
+        <v>6402</v>
       </c>
       <c r="M24" t="n">
-        <v>380605</v>
+        <v>374405</v>
       </c>
       <c r="N24" t="n">
-        <v>1994</v>
+        <v>1875</v>
       </c>
       <c r="O24" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P24" t="n">
-        <v>8736</v>
+        <v>8474</v>
       </c>
       <c r="Q24" t="n">
-        <v>7326</v>
+        <v>7196</v>
       </c>
       <c r="R24" t="n">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="S24" t="n">
-        <v>9153</v>
+        <v>8949</v>
       </c>
       <c r="T24" t="n">
-        <v>19560</v>
+        <v>19251</v>
       </c>
       <c r="U24" t="n">
-        <v>2446</v>
+        <v>2427</v>
       </c>
       <c r="V24" t="n">
-        <v>15596</v>
+        <v>15366</v>
       </c>
       <c r="W24" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X24" t="n">
-        <v>4226</v>
+        <v>4203</v>
       </c>
       <c r="Y24" t="n">
-        <v>2366</v>
+        <v>2323</v>
       </c>
       <c r="Z24" t="n">
-        <v>14040</v>
+        <v>13796</v>
       </c>
       <c r="AA24" t="n">
-        <v>9228</v>
+        <v>9046</v>
       </c>
       <c r="AB24" t="n">
-        <v>25392</v>
+        <v>25157</v>
       </c>
       <c r="AC24" t="n">
-        <v>8418</v>
+        <v>8241</v>
       </c>
       <c r="AD24" t="n">
-        <v>2044</v>
+        <v>2003</v>
       </c>
       <c r="AE24" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AF24" t="n">
-        <v>18228</v>
+        <v>17825</v>
       </c>
       <c r="AG24" t="n">
-        <v>13236</v>
+        <v>13121</v>
       </c>
       <c r="AH24" t="n">
-        <v>19162</v>
+        <v>18524</v>
       </c>
       <c r="AI24" t="n">
-        <v>24790</v>
+        <v>24567</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6618</v>
+        <v>6511</v>
       </c>
       <c r="AK24" t="n">
-        <v>5620</v>
+        <v>5552</v>
       </c>
       <c r="AL24" t="n">
-        <v>10245</v>
+        <v>10091</v>
       </c>
       <c r="AM24" t="n">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="AN24" t="n">
-        <v>24932</v>
+        <v>24489</v>
       </c>
       <c r="AO24" t="n">
-        <v>4583</v>
+        <v>4532</v>
       </c>
       <c r="AP24" t="n">
-        <v>36737</v>
+        <v>35974</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3211</v>
+        <v>3118</v>
       </c>
       <c r="AR24" t="n">
-        <v>8071</v>
+        <v>7922</v>
       </c>
       <c r="AS24" t="n">
-        <v>5143</v>
+        <v>5104</v>
       </c>
       <c r="AT24" t="n">
-        <v>1205</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19364</v>
+        <v>19040</v>
       </c>
       <c r="C25" t="n">
-        <v>4906</v>
+        <v>4842</v>
       </c>
       <c r="D25" t="n">
-        <v>1668</v>
+        <v>1697</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>21456</v>
+        <v>21024</v>
       </c>
       <c r="G25" t="n">
-        <v>358619</v>
+        <v>350529</v>
       </c>
       <c r="H25" t="n">
-        <v>21727</v>
+        <v>21533</v>
       </c>
       <c r="I25" t="n">
-        <v>1898</v>
+        <v>1854</v>
       </c>
       <c r="J25" t="n">
-        <v>7664</v>
+        <v>7339</v>
       </c>
       <c r="K25" t="n">
-        <v>5697</v>
+        <v>5598</v>
       </c>
       <c r="L25" t="n">
-        <v>6553</v>
+        <v>6387</v>
       </c>
       <c r="M25" t="n">
-        <v>383077</v>
+        <v>374408</v>
       </c>
       <c r="N25" t="n">
-        <v>2031</v>
+        <v>1874</v>
       </c>
       <c r="O25" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P25" t="n">
-        <v>8797</v>
+        <v>8478</v>
       </c>
       <c r="Q25" t="n">
-        <v>7382</v>
+        <v>7204</v>
       </c>
       <c r="R25" t="n">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="S25" t="n">
-        <v>9279</v>
+        <v>8953</v>
       </c>
       <c r="T25" t="n">
-        <v>19626</v>
+        <v>19254</v>
       </c>
       <c r="U25" t="n">
-        <v>2457</v>
+        <v>2425</v>
       </c>
       <c r="V25" t="n">
-        <v>15685</v>
+        <v>15366</v>
       </c>
       <c r="W25" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="X25" t="n">
-        <v>4245</v>
+        <v>4203</v>
       </c>
       <c r="Y25" t="n">
-        <v>2371</v>
+        <v>2323</v>
       </c>
       <c r="Z25" t="n">
-        <v>14125</v>
+        <v>13796</v>
       </c>
       <c r="AA25" t="n">
-        <v>9297</v>
+        <v>9048</v>
       </c>
       <c r="AB25" t="n">
-        <v>25524</v>
+        <v>25149</v>
       </c>
       <c r="AC25" t="n">
-        <v>8471</v>
+        <v>8236</v>
       </c>
       <c r="AD25" t="n">
-        <v>2050</v>
+        <v>2004</v>
       </c>
       <c r="AE25" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
-        <v>18348</v>
+        <v>17835</v>
       </c>
       <c r="AG25" t="n">
-        <v>13317</v>
+        <v>13113</v>
       </c>
       <c r="AH25" t="n">
-        <v>19382</v>
+        <v>18524</v>
       </c>
       <c r="AI25" t="n">
-        <v>24873</v>
+        <v>24570</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6646</v>
+        <v>6507</v>
       </c>
       <c r="AK25" t="n">
-        <v>5658</v>
+        <v>5551</v>
       </c>
       <c r="AL25" t="n">
-        <v>10333</v>
+        <v>10083</v>
       </c>
       <c r="AM25" t="n">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="AN25" t="n">
-        <v>25080</v>
+        <v>24496</v>
       </c>
       <c r="AO25" t="n">
-        <v>4604</v>
+        <v>4532</v>
       </c>
       <c r="AP25" t="n">
-        <v>37049</v>
+        <v>35973</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3265</v>
+        <v>3113</v>
       </c>
       <c r="AR25" t="n">
-        <v>8130</v>
+        <v>7928</v>
       </c>
       <c r="AS25" t="n">
-        <v>5170</v>
+        <v>5100</v>
       </c>
       <c r="AT25" t="n">
-        <v>1213</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19377</v>
+        <v>19054</v>
       </c>
       <c r="C26" t="n">
-        <v>4906</v>
+        <v>4840</v>
       </c>
       <c r="D26" t="n">
-        <v>1664</v>
+        <v>1697</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>21453</v>
+        <v>21046</v>
       </c>
       <c r="G26" t="n">
-        <v>358616</v>
+        <v>350759</v>
       </c>
       <c r="H26" t="n">
-        <v>21722</v>
+        <v>21548</v>
       </c>
       <c r="I26" t="n">
-        <v>1908</v>
+        <v>1854</v>
       </c>
       <c r="J26" t="n">
-        <v>7665</v>
+        <v>7342</v>
       </c>
       <c r="K26" t="n">
-        <v>5708</v>
+        <v>5598</v>
       </c>
       <c r="L26" t="n">
-        <v>6544</v>
+        <v>6391</v>
       </c>
       <c r="M26" t="n">
-        <v>383077</v>
+        <v>374657</v>
       </c>
       <c r="N26" t="n">
-        <v>2026</v>
+        <v>1881</v>
       </c>
       <c r="O26" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P26" t="n">
-        <v>8829</v>
+        <v>8487</v>
       </c>
       <c r="Q26" t="n">
-        <v>7391</v>
+        <v>7214</v>
       </c>
       <c r="R26" t="n">
-        <v>1218</v>
+        <v>1204</v>
       </c>
       <c r="S26" t="n">
-        <v>9278</v>
+        <v>8955</v>
       </c>
       <c r="T26" t="n">
-        <v>19614</v>
+        <v>19261</v>
       </c>
       <c r="U26" t="n">
-        <v>2459</v>
+        <v>2425</v>
       </c>
       <c r="V26" t="n">
-        <v>15686</v>
+        <v>15377</v>
       </c>
       <c r="W26" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X26" t="n">
-        <v>4245</v>
+        <v>4201</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372</v>
+        <v>2326</v>
       </c>
       <c r="Z26" t="n">
-        <v>14131</v>
+        <v>13815</v>
       </c>
       <c r="AA26" t="n">
-        <v>9300</v>
+        <v>9064</v>
       </c>
       <c r="AB26" t="n">
-        <v>25509</v>
+        <v>25160</v>
       </c>
       <c r="AC26" t="n">
-        <v>8470</v>
+        <v>8244</v>
       </c>
       <c r="AD26" t="n">
-        <v>2051</v>
+        <v>2008</v>
       </c>
       <c r="AE26" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF26" t="n">
-        <v>18344</v>
+        <v>17844</v>
       </c>
       <c r="AG26" t="n">
-        <v>13300</v>
+        <v>13115</v>
       </c>
       <c r="AH26" t="n">
-        <v>19393</v>
+        <v>18550</v>
       </c>
       <c r="AI26" t="n">
-        <v>24857</v>
+        <v>24575</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6640</v>
+        <v>6517</v>
       </c>
       <c r="AK26" t="n">
-        <v>5658</v>
+        <v>5551</v>
       </c>
       <c r="AL26" t="n">
-        <v>10330</v>
+        <v>10083</v>
       </c>
       <c r="AM26" t="n">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="AN26" t="n">
-        <v>25078</v>
+        <v>24519</v>
       </c>
       <c r="AO26" t="n">
-        <v>4605</v>
+        <v>4537</v>
       </c>
       <c r="AP26" t="n">
-        <v>37050</v>
+        <v>35981</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3263</v>
+        <v>3113</v>
       </c>
       <c r="AR26" t="n">
-        <v>8131</v>
+        <v>7936</v>
       </c>
       <c r="AS26" t="n">
-        <v>5175</v>
+        <v>5109</v>
       </c>
       <c r="AT26" t="n">
-        <v>1211</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19034</v>
+        <v>19053</v>
       </c>
       <c r="C27" t="n">
-        <v>4842</v>
+        <v>4829</v>
       </c>
       <c r="D27" t="n">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>21027</v>
+        <v>21079</v>
       </c>
       <c r="G27" t="n">
-        <v>350518</v>
+        <v>351200</v>
       </c>
       <c r="H27" t="n">
-        <v>21537</v>
+        <v>21431</v>
       </c>
       <c r="I27" t="n">
-        <v>1852</v>
+        <v>1870</v>
       </c>
       <c r="J27" t="n">
-        <v>7333</v>
+        <v>7367</v>
       </c>
       <c r="K27" t="n">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="L27" t="n">
-        <v>6402</v>
+        <v>6404</v>
       </c>
       <c r="M27" t="n">
-        <v>374405</v>
+        <v>375153</v>
       </c>
       <c r="N27" t="n">
-        <v>1875</v>
+        <v>1898</v>
       </c>
       <c r="O27" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P27" t="n">
-        <v>8474</v>
+        <v>8504</v>
       </c>
       <c r="Q27" t="n">
-        <v>7196</v>
+        <v>7222</v>
       </c>
       <c r="R27" t="n">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="S27" t="n">
-        <v>8949</v>
+        <v>8959</v>
       </c>
       <c r="T27" t="n">
-        <v>19251</v>
+        <v>19343</v>
       </c>
       <c r="U27" t="n">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="V27" t="n">
-        <v>15366</v>
+        <v>15407</v>
       </c>
       <c r="W27" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X27" t="n">
-        <v>4203</v>
+        <v>4209</v>
       </c>
       <c r="Y27" t="n">
-        <v>2323</v>
+        <v>2332</v>
       </c>
       <c r="Z27" t="n">
-        <v>13796</v>
+        <v>13838</v>
       </c>
       <c r="AA27" t="n">
-        <v>9046</v>
+        <v>9077</v>
       </c>
       <c r="AB27" t="n">
-        <v>25157</v>
+        <v>25144</v>
       </c>
       <c r="AC27" t="n">
-        <v>8241</v>
+        <v>8256</v>
       </c>
       <c r="AD27" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="AE27" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF27" t="n">
-        <v>17825</v>
+        <v>17843</v>
       </c>
       <c r="AG27" t="n">
-        <v>13121</v>
+        <v>13119</v>
       </c>
       <c r="AH27" t="n">
-        <v>18524</v>
+        <v>18677</v>
       </c>
       <c r="AI27" t="n">
-        <v>24567</v>
+        <v>24611</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6511</v>
+        <v>6527</v>
       </c>
       <c r="AK27" t="n">
-        <v>5552</v>
+        <v>5558</v>
       </c>
       <c r="AL27" t="n">
-        <v>10091</v>
+        <v>10115</v>
       </c>
       <c r="AM27" t="n">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="AN27" t="n">
-        <v>24489</v>
+        <v>24557</v>
       </c>
       <c r="AO27" t="n">
-        <v>4532</v>
+        <v>4545</v>
       </c>
       <c r="AP27" t="n">
-        <v>35974</v>
+        <v>36056</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3118</v>
+        <v>3132</v>
       </c>
       <c r="AR27" t="n">
-        <v>7922</v>
+        <v>7945</v>
       </c>
       <c r="AS27" t="n">
-        <v>5104</v>
+        <v>5114</v>
       </c>
       <c r="AT27" t="n">
-        <v>1176</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19040</v>
+        <v>19110</v>
       </c>
       <c r="C28" t="n">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="D28" t="n">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>21024</v>
+        <v>21113</v>
       </c>
       <c r="G28" t="n">
-        <v>350529</v>
+        <v>352235</v>
       </c>
       <c r="H28" t="n">
-        <v>21533</v>
+        <v>21474</v>
       </c>
       <c r="I28" t="n">
-        <v>1854</v>
+        <v>1876</v>
       </c>
       <c r="J28" t="n">
-        <v>7339</v>
+        <v>7415</v>
       </c>
       <c r="K28" t="n">
-        <v>5598</v>
+        <v>5614</v>
       </c>
       <c r="L28" t="n">
-        <v>6387</v>
+        <v>6418</v>
       </c>
       <c r="M28" t="n">
-        <v>374408</v>
+        <v>376224</v>
       </c>
       <c r="N28" t="n">
-        <v>1874</v>
+        <v>1915</v>
       </c>
       <c r="O28" t="n">
         <v>258</v>
       </c>
       <c r="P28" t="n">
-        <v>8478</v>
+        <v>8528</v>
       </c>
       <c r="Q28" t="n">
-        <v>7204</v>
+        <v>7234</v>
       </c>
       <c r="R28" t="n">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="S28" t="n">
-        <v>8953</v>
+        <v>8988</v>
       </c>
       <c r="T28" t="n">
-        <v>19254</v>
+        <v>19370</v>
       </c>
       <c r="U28" t="n">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="V28" t="n">
-        <v>15366</v>
+        <v>15444</v>
       </c>
       <c r="W28" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X28" t="n">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="Y28" t="n">
-        <v>2323</v>
+        <v>2343</v>
       </c>
       <c r="Z28" t="n">
-        <v>13796</v>
+        <v>13863</v>
       </c>
       <c r="AA28" t="n">
-        <v>9048</v>
+        <v>9091</v>
       </c>
       <c r="AB28" t="n">
-        <v>25149</v>
+        <v>25197</v>
       </c>
       <c r="AC28" t="n">
-        <v>8236</v>
+        <v>8289</v>
       </c>
       <c r="AD28" t="n">
-        <v>2004</v>
+        <v>2029</v>
       </c>
       <c r="AE28" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF28" t="n">
-        <v>17835</v>
+        <v>17958</v>
       </c>
       <c r="AG28" t="n">
-        <v>13113</v>
+        <v>13145</v>
       </c>
       <c r="AH28" t="n">
-        <v>18524</v>
+        <v>18784</v>
       </c>
       <c r="AI28" t="n">
-        <v>24570</v>
+        <v>24658</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6507</v>
+        <v>6544</v>
       </c>
       <c r="AK28" t="n">
-        <v>5551</v>
+        <v>5560</v>
       </c>
       <c r="AL28" t="n">
-        <v>10083</v>
+        <v>10126</v>
       </c>
       <c r="AM28" t="n">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AN28" t="n">
-        <v>24496</v>
+        <v>24616</v>
       </c>
       <c r="AO28" t="n">
-        <v>4532</v>
+        <v>4555</v>
       </c>
       <c r="AP28" t="n">
-        <v>35973</v>
+        <v>36207</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3113</v>
+        <v>3140</v>
       </c>
       <c r="AR28" t="n">
-        <v>7928</v>
+        <v>7961</v>
       </c>
       <c r="AS28" t="n">
-        <v>5100</v>
+        <v>5126</v>
       </c>
       <c r="AT28" t="n">
-        <v>1177</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19054</v>
+        <v>19082</v>
       </c>
       <c r="C29" t="n">
-        <v>4840</v>
+        <v>4871</v>
       </c>
       <c r="D29" t="n">
-        <v>1697</v>
+        <v>1651</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>21046</v>
+        <v>21139</v>
       </c>
       <c r="G29" t="n">
-        <v>350759</v>
+        <v>353104</v>
       </c>
       <c r="H29" t="n">
-        <v>21548</v>
+        <v>21499</v>
       </c>
       <c r="I29" t="n">
-        <v>1854</v>
+        <v>1888</v>
       </c>
       <c r="J29" t="n">
-        <v>7342</v>
+        <v>7481</v>
       </c>
       <c r="K29" t="n">
-        <v>5598</v>
+        <v>5626</v>
       </c>
       <c r="L29" t="n">
-        <v>6391</v>
+        <v>6457</v>
       </c>
       <c r="M29" t="n">
-        <v>374657</v>
+        <v>377160</v>
       </c>
       <c r="N29" t="n">
-        <v>1881</v>
+        <v>1937</v>
       </c>
       <c r="O29" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P29" t="n">
-        <v>8487</v>
+        <v>8613</v>
       </c>
       <c r="Q29" t="n">
-        <v>7214</v>
+        <v>7244</v>
       </c>
       <c r="R29" t="n">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="S29" t="n">
-        <v>8955</v>
+        <v>9008</v>
       </c>
       <c r="T29" t="n">
-        <v>19261</v>
+        <v>19431</v>
       </c>
       <c r="U29" t="n">
-        <v>2425</v>
+        <v>2431</v>
       </c>
       <c r="V29" t="n">
-        <v>15377</v>
+        <v>15482</v>
       </c>
       <c r="W29" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X29" t="n">
-        <v>4201</v>
+        <v>4206</v>
       </c>
       <c r="Y29" t="n">
-        <v>2326</v>
+        <v>2352</v>
       </c>
       <c r="Z29" t="n">
-        <v>13815</v>
+        <v>13897</v>
       </c>
       <c r="AA29" t="n">
-        <v>9064</v>
+        <v>9114</v>
       </c>
       <c r="AB29" t="n">
-        <v>25160</v>
+        <v>25188</v>
       </c>
       <c r="AC29" t="n">
-        <v>8244</v>
+        <v>8315</v>
       </c>
       <c r="AD29" t="n">
-        <v>2008</v>
+        <v>2026</v>
       </c>
       <c r="AE29" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF29" t="n">
-        <v>17844</v>
+        <v>18059</v>
       </c>
       <c r="AG29" t="n">
-        <v>13115</v>
+        <v>13160</v>
       </c>
       <c r="AH29" t="n">
-        <v>18550</v>
+        <v>18906</v>
       </c>
       <c r="AI29" t="n">
-        <v>24575</v>
+        <v>24661</v>
       </c>
       <c r="AJ29" t="n">
-        <v>6517</v>
+        <v>6562</v>
       </c>
       <c r="AK29" t="n">
-        <v>5551</v>
+        <v>5572</v>
       </c>
       <c r="AL29" t="n">
-        <v>10083</v>
+        <v>10159</v>
       </c>
       <c r="AM29" t="n">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="AN29" t="n">
-        <v>24519</v>
+        <v>24730</v>
       </c>
       <c r="AO29" t="n">
-        <v>4537</v>
+        <v>4543</v>
       </c>
       <c r="AP29" t="n">
-        <v>35981</v>
+        <v>36287</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3113</v>
+        <v>3167</v>
       </c>
       <c r="AR29" t="n">
-        <v>7936</v>
+        <v>7987</v>
       </c>
       <c r="AS29" t="n">
-        <v>5109</v>
+        <v>5121</v>
       </c>
       <c r="AT29" t="n">
-        <v>1177</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19053</v>
+        <v>19136</v>
       </c>
       <c r="C30" t="n">
-        <v>4829</v>
+        <v>4873</v>
       </c>
       <c r="D30" t="n">
-        <v>1692</v>
+        <v>1652</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>21079</v>
+        <v>21169</v>
       </c>
       <c r="G30" t="n">
-        <v>351200</v>
+        <v>353871</v>
       </c>
       <c r="H30" t="n">
-        <v>21431</v>
+        <v>21530</v>
       </c>
       <c r="I30" t="n">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="J30" t="n">
-        <v>7367</v>
+        <v>7517</v>
       </c>
       <c r="K30" t="n">
-        <v>5600</v>
+        <v>5632</v>
       </c>
       <c r="L30" t="n">
-        <v>6404</v>
+        <v>6466</v>
       </c>
       <c r="M30" t="n">
-        <v>375153</v>
+        <v>377989</v>
       </c>
       <c r="N30" t="n">
-        <v>1898</v>
+        <v>1953</v>
       </c>
       <c r="O30" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P30" t="n">
-        <v>8504</v>
+        <v>8639</v>
       </c>
       <c r="Q30" t="n">
-        <v>7222</v>
+        <v>7267</v>
       </c>
       <c r="R30" t="n">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="S30" t="n">
-        <v>8959</v>
+        <v>9029</v>
       </c>
       <c r="T30" t="n">
-        <v>19343</v>
+        <v>19472</v>
       </c>
       <c r="U30" t="n">
-        <v>2429</v>
+        <v>2434</v>
       </c>
       <c r="V30" t="n">
-        <v>15407</v>
+        <v>15510</v>
       </c>
       <c r="W30" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X30" t="n">
-        <v>4209</v>
+        <v>4207</v>
       </c>
       <c r="Y30" t="n">
-        <v>2332</v>
+        <v>2352</v>
       </c>
       <c r="Z30" t="n">
-        <v>13838</v>
+        <v>13931</v>
       </c>
       <c r="AA30" t="n">
-        <v>9077</v>
+        <v>9145</v>
       </c>
       <c r="AB30" t="n">
-        <v>25144</v>
+        <v>25237</v>
       </c>
       <c r="AC30" t="n">
-        <v>8256</v>
+        <v>8335</v>
       </c>
       <c r="AD30" t="n">
-        <v>2015</v>
+        <v>2029</v>
       </c>
       <c r="AE30" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF30" t="n">
-        <v>17843</v>
+        <v>18120</v>
       </c>
       <c r="AG30" t="n">
-        <v>13119</v>
+        <v>13168</v>
       </c>
       <c r="AH30" t="n">
-        <v>18677</v>
+        <v>18981</v>
       </c>
       <c r="AI30" t="n">
-        <v>24611</v>
+        <v>24693</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6527</v>
+        <v>6577</v>
       </c>
       <c r="AK30" t="n">
-        <v>5558</v>
+        <v>5578</v>
       </c>
       <c r="AL30" t="n">
-        <v>10115</v>
+        <v>10187</v>
       </c>
       <c r="AM30" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AN30" t="n">
-        <v>24557</v>
+        <v>24785</v>
       </c>
       <c r="AO30" t="n">
-        <v>4545</v>
+        <v>4551</v>
       </c>
       <c r="AP30" t="n">
-        <v>36056</v>
+        <v>36369</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3132</v>
+        <v>3186</v>
       </c>
       <c r="AR30" t="n">
-        <v>7945</v>
+        <v>8016</v>
       </c>
       <c r="AS30" t="n">
-        <v>5114</v>
+        <v>5119</v>
       </c>
       <c r="AT30" t="n">
-        <v>1181</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19110</v>
+        <v>19188</v>
       </c>
       <c r="C31" t="n">
-        <v>4840</v>
+        <v>4871</v>
       </c>
       <c r="D31" t="n">
-        <v>1692</v>
+        <v>1657</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>21113</v>
+        <v>21239</v>
       </c>
       <c r="G31" t="n">
-        <v>352235</v>
+        <v>355018</v>
       </c>
       <c r="H31" t="n">
-        <v>21474</v>
+        <v>21577</v>
       </c>
       <c r="I31" t="n">
-        <v>1876</v>
+        <v>1891</v>
       </c>
       <c r="J31" t="n">
-        <v>7415</v>
+        <v>7565</v>
       </c>
       <c r="K31" t="n">
-        <v>5614</v>
+        <v>5641</v>
       </c>
       <c r="L31" t="n">
-        <v>6418</v>
+        <v>6477</v>
       </c>
       <c r="M31" t="n">
-        <v>376224</v>
+        <v>379220</v>
       </c>
       <c r="N31" t="n">
-        <v>1915</v>
+        <v>1962</v>
       </c>
       <c r="O31" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P31" t="n">
-        <v>8528</v>
+        <v>8687</v>
       </c>
       <c r="Q31" t="n">
-        <v>7234</v>
+        <v>7299</v>
       </c>
       <c r="R31" t="n">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="S31" t="n">
-        <v>8988</v>
+        <v>9080</v>
       </c>
       <c r="T31" t="n">
-        <v>19370</v>
+        <v>19512</v>
       </c>
       <c r="U31" t="n">
-        <v>2429</v>
+        <v>2439</v>
       </c>
       <c r="V31" t="n">
-        <v>15444</v>
+        <v>15543</v>
       </c>
       <c r="W31" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X31" t="n">
-        <v>4205</v>
+        <v>4216</v>
       </c>
       <c r="Y31" t="n">
-        <v>2343</v>
+        <v>2357</v>
       </c>
       <c r="Z31" t="n">
-        <v>13863</v>
+        <v>13976</v>
       </c>
       <c r="AA31" t="n">
-        <v>9091</v>
+        <v>9180</v>
       </c>
       <c r="AB31" t="n">
-        <v>25197</v>
+        <v>25310</v>
       </c>
       <c r="AC31" t="n">
-        <v>8289</v>
+        <v>8373</v>
       </c>
       <c r="AD31" t="n">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="AE31" t="n">
         <v>121</v>
       </c>
       <c r="AF31" t="n">
-        <v>17958</v>
+        <v>18188</v>
       </c>
       <c r="AG31" t="n">
-        <v>13145</v>
+        <v>13187</v>
       </c>
       <c r="AH31" t="n">
-        <v>18784</v>
+        <v>19069</v>
       </c>
       <c r="AI31" t="n">
-        <v>24658</v>
+        <v>24741</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6544</v>
+        <v>6597</v>
       </c>
       <c r="AK31" t="n">
-        <v>5560</v>
+        <v>5602</v>
       </c>
       <c r="AL31" t="n">
-        <v>10126</v>
+        <v>10226</v>
       </c>
       <c r="AM31" t="n">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AN31" t="n">
-        <v>24616</v>
+        <v>24846</v>
       </c>
       <c r="AO31" t="n">
-        <v>4555</v>
+        <v>4572</v>
       </c>
       <c r="AP31" t="n">
-        <v>36207</v>
+        <v>36548</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3140</v>
+        <v>3207</v>
       </c>
       <c r="AR31" t="n">
-        <v>7961</v>
+        <v>8041</v>
       </c>
       <c r="AS31" t="n">
-        <v>5126</v>
+        <v>5135</v>
       </c>
       <c r="AT31" t="n">
-        <v>1187</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19082</v>
+        <v>19246</v>
       </c>
       <c r="C32" t="n">
-        <v>4871</v>
+        <v>4885</v>
       </c>
       <c r="D32" t="n">
-        <v>1651</v>
+        <v>1662</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>21139</v>
+        <v>21312</v>
       </c>
       <c r="G32" t="n">
-        <v>353104</v>
+        <v>356320</v>
       </c>
       <c r="H32" t="n">
-        <v>21499</v>
+        <v>21629</v>
       </c>
       <c r="I32" t="n">
-        <v>1888</v>
+        <v>1894</v>
       </c>
       <c r="J32" t="n">
-        <v>7481</v>
+        <v>7602</v>
       </c>
       <c r="K32" t="n">
-        <v>5626</v>
+        <v>5663</v>
       </c>
       <c r="L32" t="n">
-        <v>6457</v>
+        <v>6506</v>
       </c>
       <c r="M32" t="n">
-        <v>377160</v>
+        <v>380605</v>
       </c>
       <c r="N32" t="n">
-        <v>1937</v>
+        <v>1994</v>
       </c>
       <c r="O32" t="n">
         <v>256</v>
       </c>
       <c r="P32" t="n">
-        <v>8613</v>
+        <v>8736</v>
       </c>
       <c r="Q32" t="n">
-        <v>7244</v>
+        <v>7326</v>
       </c>
       <c r="R32" t="n">
-        <v>1206</v>
+        <v>1215</v>
       </c>
       <c r="S32" t="n">
-        <v>9008</v>
+        <v>9153</v>
       </c>
       <c r="T32" t="n">
-        <v>19431</v>
+        <v>19560</v>
       </c>
       <c r="U32" t="n">
-        <v>2431</v>
+        <v>2446</v>
       </c>
       <c r="V32" t="n">
-        <v>15482</v>
+        <v>15596</v>
       </c>
       <c r="W32" t="n">
         <v>106</v>
       </c>
       <c r="X32" t="n">
-        <v>4206</v>
+        <v>4226</v>
       </c>
       <c r="Y32" t="n">
-        <v>2352</v>
+        <v>2366</v>
       </c>
       <c r="Z32" t="n">
-        <v>13897</v>
+        <v>14040</v>
       </c>
       <c r="AA32" t="n">
-        <v>9114</v>
+        <v>9228</v>
       </c>
       <c r="AB32" t="n">
-        <v>25188</v>
+        <v>25392</v>
       </c>
       <c r="AC32" t="n">
-        <v>8315</v>
+        <v>8418</v>
       </c>
       <c r="AD32" t="n">
-        <v>2026</v>
+        <v>2044</v>
       </c>
       <c r="AE32" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF32" t="n">
-        <v>18059</v>
+        <v>18228</v>
       </c>
       <c r="AG32" t="n">
-        <v>13160</v>
+        <v>13236</v>
       </c>
       <c r="AH32" t="n">
-        <v>18906</v>
+        <v>19162</v>
       </c>
       <c r="AI32" t="n">
-        <v>24661</v>
+        <v>24790</v>
       </c>
       <c r="AJ32" t="n">
-        <v>6562</v>
+        <v>6618</v>
       </c>
       <c r="AK32" t="n">
-        <v>5572</v>
+        <v>5620</v>
       </c>
       <c r="AL32" t="n">
-        <v>10159</v>
+        <v>10245</v>
       </c>
       <c r="AM32" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AN32" t="n">
-        <v>24730</v>
+        <v>24932</v>
       </c>
       <c r="AO32" t="n">
-        <v>4543</v>
+        <v>4583</v>
       </c>
       <c r="AP32" t="n">
-        <v>36287</v>
+        <v>36737</v>
       </c>
       <c r="AQ32" t="n">
-        <v>3167</v>
+        <v>3211</v>
       </c>
       <c r="AR32" t="n">
-        <v>7987</v>
+        <v>8071</v>
       </c>
       <c r="AS32" t="n">
-        <v>5121</v>
+        <v>5143</v>
       </c>
       <c r="AT32" t="n">
-        <v>1194</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19136</v>
+        <v>19364</v>
       </c>
       <c r="C33" t="n">
-        <v>4873</v>
+        <v>4906</v>
       </c>
       <c r="D33" t="n">
-        <v>1652</v>
+        <v>1668</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>21169</v>
+        <v>21456</v>
       </c>
       <c r="G33" t="n">
-        <v>353871</v>
+        <v>358619</v>
       </c>
       <c r="H33" t="n">
-        <v>21530</v>
+        <v>21727</v>
       </c>
       <c r="I33" t="n">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="J33" t="n">
-        <v>7517</v>
+        <v>7664</v>
       </c>
       <c r="K33" t="n">
-        <v>5632</v>
+        <v>5697</v>
       </c>
       <c r="L33" t="n">
-        <v>6466</v>
+        <v>6553</v>
       </c>
       <c r="M33" t="n">
-        <v>377989</v>
+        <v>383077</v>
       </c>
       <c r="N33" t="n">
-        <v>1953</v>
+        <v>2031</v>
       </c>
       <c r="O33" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P33" t="n">
-        <v>8639</v>
+        <v>8797</v>
       </c>
       <c r="Q33" t="n">
-        <v>7267</v>
+        <v>7382</v>
       </c>
       <c r="R33" t="n">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="S33" t="n">
-        <v>9029</v>
+        <v>9279</v>
       </c>
       <c r="T33" t="n">
-        <v>19472</v>
+        <v>19626</v>
       </c>
       <c r="U33" t="n">
-        <v>2434</v>
+        <v>2457</v>
       </c>
       <c r="V33" t="n">
-        <v>15510</v>
+        <v>15685</v>
       </c>
       <c r="W33" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X33" t="n">
-        <v>4207</v>
+        <v>4245</v>
       </c>
       <c r="Y33" t="n">
-        <v>2352</v>
+        <v>2371</v>
       </c>
       <c r="Z33" t="n">
-        <v>13931</v>
+        <v>14125</v>
       </c>
       <c r="AA33" t="n">
-        <v>9145</v>
+        <v>9297</v>
       </c>
       <c r="AB33" t="n">
-        <v>25237</v>
+        <v>25524</v>
       </c>
       <c r="AC33" t="n">
-        <v>8335</v>
+        <v>8471</v>
       </c>
       <c r="AD33" t="n">
-        <v>2029</v>
+        <v>2050</v>
       </c>
       <c r="AE33" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AF33" t="n">
-        <v>18120</v>
+        <v>18348</v>
       </c>
       <c r="AG33" t="n">
-        <v>13168</v>
+        <v>13317</v>
       </c>
       <c r="AH33" t="n">
-        <v>18981</v>
+        <v>19382</v>
       </c>
       <c r="AI33" t="n">
-        <v>24693</v>
+        <v>24873</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6577</v>
+        <v>6646</v>
       </c>
       <c r="AK33" t="n">
-        <v>5578</v>
+        <v>5658</v>
       </c>
       <c r="AL33" t="n">
-        <v>10187</v>
+        <v>10333</v>
       </c>
       <c r="AM33" t="n">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AN33" t="n">
-        <v>24785</v>
+        <v>25080</v>
       </c>
       <c r="AO33" t="n">
-        <v>4551</v>
+        <v>4604</v>
       </c>
       <c r="AP33" t="n">
-        <v>36369</v>
+        <v>37049</v>
       </c>
       <c r="AQ33" t="n">
-        <v>3186</v>
+        <v>3265</v>
       </c>
       <c r="AR33" t="n">
-        <v>8016</v>
+        <v>8130</v>
       </c>
       <c r="AS33" t="n">
-        <v>5119</v>
+        <v>5170</v>
       </c>
       <c r="AT33" t="n">
-        <v>1199</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19188</v>
+        <v>19377</v>
       </c>
       <c r="C34" t="n">
-        <v>4871</v>
+        <v>4906</v>
       </c>
       <c r="D34" t="n">
-        <v>1657</v>
+        <v>1664</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>21239</v>
+        <v>21453</v>
       </c>
       <c r="G34" t="n">
-        <v>355018</v>
+        <v>358616</v>
       </c>
       <c r="H34" t="n">
-        <v>21577</v>
+        <v>21722</v>
       </c>
       <c r="I34" t="n">
-        <v>1891</v>
+        <v>1908</v>
       </c>
       <c r="J34" t="n">
-        <v>7565</v>
+        <v>7665</v>
       </c>
       <c r="K34" t="n">
-        <v>5641</v>
+        <v>5708</v>
       </c>
       <c r="L34" t="n">
-        <v>6477</v>
+        <v>6544</v>
       </c>
       <c r="M34" t="n">
-        <v>379220</v>
+        <v>383077</v>
       </c>
       <c r="N34" t="n">
-        <v>1962</v>
+        <v>2026</v>
       </c>
       <c r="O34" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P34" t="n">
-        <v>8687</v>
+        <v>8829</v>
       </c>
       <c r="Q34" t="n">
-        <v>7299</v>
+        <v>7391</v>
       </c>
       <c r="R34" t="n">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="S34" t="n">
-        <v>9080</v>
+        <v>9278</v>
       </c>
       <c r="T34" t="n">
-        <v>19512</v>
+        <v>19614</v>
       </c>
       <c r="U34" t="n">
-        <v>2439</v>
+        <v>2459</v>
       </c>
       <c r="V34" t="n">
-        <v>15543</v>
+        <v>15686</v>
       </c>
       <c r="W34" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X34" t="n">
-        <v>4216</v>
+        <v>4245</v>
       </c>
       <c r="Y34" t="n">
-        <v>2357</v>
+        <v>2372</v>
       </c>
       <c r="Z34" t="n">
-        <v>13976</v>
+        <v>14131</v>
       </c>
       <c r="AA34" t="n">
-        <v>9180</v>
+        <v>9300</v>
       </c>
       <c r="AB34" t="n">
-        <v>25310</v>
+        <v>25509</v>
       </c>
       <c r="AC34" t="n">
-        <v>8373</v>
+        <v>8470</v>
       </c>
       <c r="AD34" t="n">
-        <v>2037</v>
+        <v>2051</v>
       </c>
       <c r="AE34" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AF34" t="n">
-        <v>18188</v>
+        <v>18344</v>
       </c>
       <c r="AG34" t="n">
-        <v>13187</v>
+        <v>13300</v>
       </c>
       <c r="AH34" t="n">
-        <v>19069</v>
+        <v>19393</v>
       </c>
       <c r="AI34" t="n">
-        <v>24741</v>
+        <v>24857</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6597</v>
+        <v>6640</v>
       </c>
       <c r="AK34" t="n">
-        <v>5602</v>
+        <v>5658</v>
       </c>
       <c r="AL34" t="n">
-        <v>10226</v>
+        <v>10330</v>
       </c>
       <c r="AM34" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AN34" t="n">
-        <v>24846</v>
+        <v>25078</v>
       </c>
       <c r="AO34" t="n">
-        <v>4572</v>
+        <v>4605</v>
       </c>
       <c r="AP34" t="n">
-        <v>36548</v>
+        <v>37050</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3207</v>
+        <v>3263</v>
       </c>
       <c r="AR34" t="n">
-        <v>8041</v>
+        <v>8131</v>
       </c>
       <c r="AS34" t="n">
-        <v>5135</v>
+        <v>5175</v>
       </c>
       <c r="AT34" t="n">
-        <v>1202</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21575</v>
+        <v>21320</v>
       </c>
       <c r="C35" t="n">
-        <v>5372</v>
+        <v>5333</v>
       </c>
       <c r="D35" t="n">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>22167</v>
+        <v>21770</v>
       </c>
       <c r="G35" t="n">
-        <v>379807</v>
+        <v>374070</v>
       </c>
       <c r="H35" t="n">
-        <v>22259</v>
+        <v>22028</v>
       </c>
       <c r="I35" t="n">
-        <v>1977</v>
+        <v>1922</v>
       </c>
       <c r="J35" t="n">
-        <v>8298</v>
+        <v>8228</v>
       </c>
       <c r="K35" t="n">
-        <v>5969</v>
+        <v>5838</v>
       </c>
       <c r="L35" t="n">
-        <v>6613</v>
+        <v>6532</v>
       </c>
       <c r="M35" t="n">
-        <v>406300</v>
+        <v>399927</v>
       </c>
       <c r="N35" t="n">
-        <v>2304</v>
+        <v>2145</v>
       </c>
       <c r="O35" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P35" t="n">
-        <v>9027</v>
+        <v>8890</v>
       </c>
       <c r="Q35" t="n">
-        <v>7787</v>
+        <v>7633</v>
       </c>
       <c r="R35" t="n">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="S35" t="n">
-        <v>10118</v>
+        <v>9868</v>
       </c>
       <c r="T35" t="n">
-        <v>21180</v>
+        <v>20910</v>
       </c>
       <c r="U35" t="n">
-        <v>2815</v>
+        <v>2793</v>
       </c>
       <c r="V35" t="n">
-        <v>16327</v>
+        <v>16160</v>
       </c>
       <c r="W35" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X35" t="n">
-        <v>4334</v>
+        <v>4264</v>
       </c>
       <c r="Y35" t="n">
-        <v>2679</v>
+        <v>2645</v>
       </c>
       <c r="Z35" t="n">
-        <v>15762</v>
+        <v>15310</v>
       </c>
       <c r="AA35" t="n">
-        <v>10268</v>
+        <v>9872</v>
       </c>
       <c r="AB35" t="n">
-        <v>27483</v>
+        <v>27231</v>
       </c>
       <c r="AC35" t="n">
-        <v>7777</v>
+        <v>7676</v>
       </c>
       <c r="AD35" t="n">
-        <v>2139</v>
+        <v>2116</v>
       </c>
       <c r="AE35" t="n">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AF35" t="n">
-        <v>18629</v>
+        <v>18307</v>
       </c>
       <c r="AG35" t="n">
-        <v>12591</v>
+        <v>12438</v>
       </c>
       <c r="AH35" t="n">
-        <v>21452</v>
+        <v>20739</v>
       </c>
       <c r="AI35" t="n">
-        <v>27078</v>
+        <v>26897</v>
       </c>
       <c r="AJ35" t="n">
-        <v>6731</v>
+        <v>6697</v>
       </c>
       <c r="AK35" t="n">
-        <v>5519</v>
+        <v>5438</v>
       </c>
       <c r="AL35" t="n">
-        <v>10731</v>
+        <v>10547</v>
       </c>
       <c r="AM35" t="n">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AN35" t="n">
-        <v>27604</v>
+        <v>27167</v>
       </c>
       <c r="AO35" t="n">
-        <v>4972</v>
+        <v>4910</v>
       </c>
       <c r="AP35" t="n">
-        <v>40613</v>
+        <v>39873</v>
       </c>
       <c r="AQ35" t="n">
-        <v>3447</v>
+        <v>3383</v>
       </c>
       <c r="AR35" t="n">
-        <v>8413</v>
+        <v>8267</v>
       </c>
       <c r="AS35" t="n">
-        <v>5410</v>
+        <v>5334</v>
       </c>
       <c r="AT35" t="n">
-        <v>1315</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21645</v>
+        <v>21320</v>
       </c>
       <c r="C36" t="n">
-        <v>5398</v>
+        <v>5334</v>
       </c>
       <c r="D36" t="n">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>22300</v>
+        <v>21785</v>
       </c>
       <c r="G36" t="n">
-        <v>382067</v>
+        <v>374272</v>
       </c>
       <c r="H36" t="n">
-        <v>22347</v>
+        <v>22033</v>
       </c>
       <c r="I36" t="n">
-        <v>1988</v>
+        <v>1926</v>
       </c>
       <c r="J36" t="n">
-        <v>8343</v>
+        <v>8226</v>
       </c>
       <c r="K36" t="n">
-        <v>5990</v>
+        <v>5842</v>
       </c>
       <c r="L36" t="n">
-        <v>6648</v>
+        <v>6536</v>
       </c>
       <c r="M36" t="n">
-        <v>408731</v>
+        <v>400150</v>
       </c>
       <c r="N36" t="n">
-        <v>2351</v>
+        <v>2150</v>
       </c>
       <c r="O36" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P36" t="n">
-        <v>9120</v>
+        <v>8897</v>
       </c>
       <c r="Q36" t="n">
-        <v>7845</v>
+        <v>7645</v>
       </c>
       <c r="R36" t="n">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="S36" t="n">
-        <v>10226</v>
+        <v>9876</v>
       </c>
       <c r="T36" t="n">
-        <v>21277</v>
+        <v>20919</v>
       </c>
       <c r="U36" t="n">
-        <v>2822</v>
+        <v>2792</v>
       </c>
       <c r="V36" t="n">
-        <v>16413</v>
+        <v>16177</v>
       </c>
       <c r="W36" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X36" t="n">
-        <v>4343</v>
+        <v>4267</v>
       </c>
       <c r="Y36" t="n">
-        <v>2684</v>
+        <v>2647</v>
       </c>
       <c r="Z36" t="n">
-        <v>15878</v>
+        <v>15327</v>
       </c>
       <c r="AA36" t="n">
-        <v>10372</v>
+        <v>9888</v>
       </c>
       <c r="AB36" t="n">
-        <v>27631</v>
+        <v>27222</v>
       </c>
       <c r="AC36" t="n">
-        <v>7819</v>
+        <v>7674</v>
       </c>
       <c r="AD36" t="n">
-        <v>2146</v>
+        <v>2113</v>
       </c>
       <c r="AE36" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AF36" t="n">
-        <v>18727</v>
+        <v>18315</v>
       </c>
       <c r="AG36" t="n">
-        <v>12659</v>
+        <v>12434</v>
       </c>
       <c r="AH36" t="n">
-        <v>21698</v>
+        <v>20774</v>
       </c>
       <c r="AI36" t="n">
-        <v>27214</v>
+        <v>26906</v>
       </c>
       <c r="AJ36" t="n">
-        <v>6761</v>
+        <v>6700</v>
       </c>
       <c r="AK36" t="n">
-        <v>5551</v>
+        <v>5441</v>
       </c>
       <c r="AL36" t="n">
-        <v>10786</v>
+        <v>10551</v>
       </c>
       <c r="AM36" t="n">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="AN36" t="n">
-        <v>27728</v>
+        <v>27196</v>
       </c>
       <c r="AO36" t="n">
-        <v>4988</v>
+        <v>4917</v>
       </c>
       <c r="AP36" t="n">
-        <v>40892</v>
+        <v>39899</v>
       </c>
       <c r="AQ36" t="n">
-        <v>3484</v>
+        <v>3380</v>
       </c>
       <c r="AR36" t="n">
-        <v>8486</v>
+        <v>8274</v>
       </c>
       <c r="AS36" t="n">
-        <v>5437</v>
+        <v>5333</v>
       </c>
       <c r="AT36" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21636</v>
+        <v>21318</v>
       </c>
       <c r="C37" t="n">
-        <v>5400</v>
+        <v>5343</v>
       </c>
       <c r="D37" t="n">
-        <v>1778</v>
+        <v>1764</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>22296</v>
+        <v>21821</v>
       </c>
       <c r="G37" t="n">
-        <v>382061</v>
+        <v>374627</v>
       </c>
       <c r="H37" t="n">
-        <v>22332</v>
+        <v>22039</v>
       </c>
       <c r="I37" t="n">
-        <v>1989</v>
+        <v>1931</v>
       </c>
       <c r="J37" t="n">
-        <v>8337</v>
+        <v>8225</v>
       </c>
       <c r="K37" t="n">
-        <v>6010</v>
+        <v>5842</v>
       </c>
       <c r="L37" t="n">
-        <v>6647</v>
+        <v>6537</v>
       </c>
       <c r="M37" t="n">
-        <v>408732</v>
+        <v>400529</v>
       </c>
       <c r="N37" t="n">
-        <v>2359</v>
+        <v>2170</v>
       </c>
       <c r="O37" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P37" t="n">
-        <v>9136</v>
+        <v>8887</v>
       </c>
       <c r="Q37" t="n">
-        <v>7829</v>
+        <v>7665</v>
       </c>
       <c r="R37" t="n">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="S37" t="n">
-        <v>10223</v>
+        <v>9902</v>
       </c>
       <c r="T37" t="n">
-        <v>21272</v>
+        <v>20948</v>
       </c>
       <c r="U37" t="n">
-        <v>2823</v>
+        <v>2792</v>
       </c>
       <c r="V37" t="n">
-        <v>16414</v>
+        <v>16173</v>
       </c>
       <c r="W37" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X37" t="n">
-        <v>4343</v>
+        <v>4273</v>
       </c>
       <c r="Y37" t="n">
-        <v>2685</v>
+        <v>2651</v>
       </c>
       <c r="Z37" t="n">
-        <v>15880</v>
+        <v>15345</v>
       </c>
       <c r="AA37" t="n">
-        <v>10372</v>
+        <v>9902</v>
       </c>
       <c r="AB37" t="n">
-        <v>27625</v>
+        <v>27224</v>
       </c>
       <c r="AC37" t="n">
-        <v>7818</v>
+        <v>7680</v>
       </c>
       <c r="AD37" t="n">
-        <v>2139</v>
+        <v>2107</v>
       </c>
       <c r="AE37" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AF37" t="n">
-        <v>18729</v>
+        <v>18350</v>
       </c>
       <c r="AG37" t="n">
-        <v>12653</v>
+        <v>12444</v>
       </c>
       <c r="AH37" t="n">
-        <v>21740</v>
+        <v>20847</v>
       </c>
       <c r="AI37" t="n">
-        <v>27210</v>
+        <v>26899</v>
       </c>
       <c r="AJ37" t="n">
-        <v>6747</v>
+        <v>6716</v>
       </c>
       <c r="AK37" t="n">
-        <v>5551</v>
+        <v>5445</v>
       </c>
       <c r="AL37" t="n">
-        <v>10791</v>
+        <v>10557</v>
       </c>
       <c r="AM37" t="n">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="AN37" t="n">
-        <v>27722</v>
+        <v>27228</v>
       </c>
       <c r="AO37" t="n">
-        <v>4989</v>
+        <v>4922</v>
       </c>
       <c r="AP37" t="n">
-        <v>40890</v>
+        <v>39946</v>
       </c>
       <c r="AQ37" t="n">
-        <v>3487</v>
+        <v>3379</v>
       </c>
       <c r="AR37" t="n">
-        <v>8496</v>
+        <v>8273</v>
       </c>
       <c r="AS37" t="n">
-        <v>5433</v>
+        <v>5340</v>
       </c>
       <c r="AT37" t="n">
-        <v>1320</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21320</v>
+        <v>21331</v>
       </c>
       <c r="C38" t="n">
-        <v>5333</v>
+        <v>5348</v>
       </c>
       <c r="D38" t="n">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>21770</v>
+        <v>21856</v>
       </c>
       <c r="G38" t="n">
-        <v>374070</v>
+        <v>374976</v>
       </c>
       <c r="H38" t="n">
-        <v>22028</v>
+        <v>22069</v>
       </c>
       <c r="I38" t="n">
-        <v>1922</v>
+        <v>1929</v>
       </c>
       <c r="J38" t="n">
-        <v>8228</v>
+        <v>8232</v>
       </c>
       <c r="K38" t="n">
-        <v>5838</v>
+        <v>5848</v>
       </c>
       <c r="L38" t="n">
-        <v>6532</v>
+        <v>6530</v>
       </c>
       <c r="M38" t="n">
-        <v>399927</v>
+        <v>400926</v>
       </c>
       <c r="N38" t="n">
-        <v>2145</v>
+        <v>2175</v>
       </c>
       <c r="O38" t="n">
         <v>282</v>
       </c>
       <c r="P38" t="n">
-        <v>8890</v>
+        <v>8900</v>
       </c>
       <c r="Q38" t="n">
-        <v>7633</v>
+        <v>7678</v>
       </c>
       <c r="R38" t="n">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="S38" t="n">
-        <v>9868</v>
+        <v>9920</v>
       </c>
       <c r="T38" t="n">
-        <v>20910</v>
+        <v>20956</v>
       </c>
       <c r="U38" t="n">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="V38" t="n">
-        <v>16160</v>
+        <v>16178</v>
       </c>
       <c r="W38" t="n">
         <v>101</v>
       </c>
       <c r="X38" t="n">
-        <v>4264</v>
+        <v>4276</v>
       </c>
       <c r="Y38" t="n">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="Z38" t="n">
-        <v>15310</v>
+        <v>15376</v>
       </c>
       <c r="AA38" t="n">
-        <v>9872</v>
+        <v>9927</v>
       </c>
       <c r="AB38" t="n">
-        <v>27231</v>
+        <v>27250</v>
       </c>
       <c r="AC38" t="n">
-        <v>7676</v>
+        <v>7685</v>
       </c>
       <c r="AD38" t="n">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="AE38" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF38" t="n">
-        <v>18307</v>
+        <v>18371</v>
       </c>
       <c r="AG38" t="n">
-        <v>12438</v>
+        <v>12451</v>
       </c>
       <c r="AH38" t="n">
-        <v>20739</v>
+        <v>20889</v>
       </c>
       <c r="AI38" t="n">
-        <v>26897</v>
+        <v>26912</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6697</v>
+        <v>6724</v>
       </c>
       <c r="AK38" t="n">
-        <v>5438</v>
+        <v>5450</v>
       </c>
       <c r="AL38" t="n">
-        <v>10547</v>
+        <v>10574</v>
       </c>
       <c r="AM38" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AN38" t="n">
-        <v>27167</v>
+        <v>27242</v>
       </c>
       <c r="AO38" t="n">
-        <v>4910</v>
+        <v>4925</v>
       </c>
       <c r="AP38" t="n">
-        <v>39873</v>
+        <v>39979</v>
       </c>
       <c r="AQ38" t="n">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="AR38" t="n">
-        <v>8267</v>
+        <v>8280</v>
       </c>
       <c r="AS38" t="n">
-        <v>5334</v>
+        <v>5349</v>
       </c>
       <c r="AT38" t="n">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21320</v>
+        <v>21360</v>
       </c>
       <c r="C39" t="n">
-        <v>5334</v>
+        <v>5357</v>
       </c>
       <c r="D39" t="n">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>21785</v>
+        <v>21924</v>
       </c>
       <c r="G39" t="n">
-        <v>374272</v>
+        <v>375751</v>
       </c>
       <c r="H39" t="n">
-        <v>22033</v>
+        <v>22104</v>
       </c>
       <c r="I39" t="n">
-        <v>1926</v>
+        <v>1936</v>
       </c>
       <c r="J39" t="n">
-        <v>8226</v>
+        <v>8240</v>
       </c>
       <c r="K39" t="n">
-        <v>5842</v>
+        <v>5862</v>
       </c>
       <c r="L39" t="n">
-        <v>6536</v>
+        <v>6544</v>
       </c>
       <c r="M39" t="n">
-        <v>400150</v>
+        <v>401815</v>
       </c>
       <c r="N39" t="n">
-        <v>2150</v>
+        <v>2196</v>
       </c>
       <c r="O39" t="n">
         <v>282</v>
       </c>
       <c r="P39" t="n">
-        <v>8897</v>
+        <v>8910</v>
       </c>
       <c r="Q39" t="n">
-        <v>7645</v>
+        <v>7696</v>
       </c>
       <c r="R39" t="n">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="S39" t="n">
-        <v>9876</v>
+        <v>9964</v>
       </c>
       <c r="T39" t="n">
-        <v>20919</v>
+        <v>20994</v>
       </c>
       <c r="U39" t="n">
-        <v>2792</v>
+        <v>2798</v>
       </c>
       <c r="V39" t="n">
-        <v>16177</v>
+        <v>16202</v>
       </c>
       <c r="W39" t="n">
         <v>101</v>
       </c>
       <c r="X39" t="n">
-        <v>4267</v>
+        <v>4284</v>
       </c>
       <c r="Y39" t="n">
-        <v>2647</v>
+        <v>2664</v>
       </c>
       <c r="Z39" t="n">
-        <v>15327</v>
+        <v>15462</v>
       </c>
       <c r="AA39" t="n">
-        <v>9888</v>
+        <v>10000</v>
       </c>
       <c r="AB39" t="n">
-        <v>27222</v>
+        <v>27296</v>
       </c>
       <c r="AC39" t="n">
-        <v>7674</v>
+        <v>7697</v>
       </c>
       <c r="AD39" t="n">
         <v>2113</v>
       </c>
       <c r="AE39" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF39" t="n">
-        <v>18315</v>
+        <v>18407</v>
       </c>
       <c r="AG39" t="n">
-        <v>12434</v>
+        <v>12467</v>
       </c>
       <c r="AH39" t="n">
-        <v>20774</v>
+        <v>20976</v>
       </c>
       <c r="AI39" t="n">
-        <v>26906</v>
+        <v>26944</v>
       </c>
       <c r="AJ39" t="n">
-        <v>6700</v>
+        <v>6733</v>
       </c>
       <c r="AK39" t="n">
-        <v>5441</v>
+        <v>5466</v>
       </c>
       <c r="AL39" t="n">
-        <v>10551</v>
+        <v>10602</v>
       </c>
       <c r="AM39" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AN39" t="n">
-        <v>27196</v>
+        <v>27298</v>
       </c>
       <c r="AO39" t="n">
-        <v>4917</v>
+        <v>4933</v>
       </c>
       <c r="AP39" t="n">
-        <v>39899</v>
+        <v>40069</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3380</v>
+        <v>3388</v>
       </c>
       <c r="AR39" t="n">
-        <v>8274</v>
+        <v>8292</v>
       </c>
       <c r="AS39" t="n">
-        <v>5333</v>
+        <v>5363</v>
       </c>
       <c r="AT39" t="n">
-        <v>1290</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21318</v>
+        <v>21448</v>
       </c>
       <c r="C40" t="n">
-        <v>5343</v>
+        <v>5357</v>
       </c>
       <c r="D40" t="n">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>21821</v>
+        <v>21965</v>
       </c>
       <c r="G40" t="n">
-        <v>374627</v>
+        <v>376684</v>
       </c>
       <c r="H40" t="n">
-        <v>22039</v>
+        <v>22139</v>
       </c>
       <c r="I40" t="n">
-        <v>1931</v>
+        <v>1962</v>
       </c>
       <c r="J40" t="n">
-        <v>8225</v>
+        <v>8257</v>
       </c>
       <c r="K40" t="n">
-        <v>5842</v>
+        <v>5945</v>
       </c>
       <c r="L40" t="n">
-        <v>6537</v>
+        <v>6556</v>
       </c>
       <c r="M40" t="n">
-        <v>400529</v>
+        <v>402857</v>
       </c>
       <c r="N40" t="n">
-        <v>2170</v>
+        <v>2228</v>
       </c>
       <c r="O40" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P40" t="n">
-        <v>8887</v>
+        <v>8952</v>
       </c>
       <c r="Q40" t="n">
-        <v>7665</v>
+        <v>7695</v>
       </c>
       <c r="R40" t="n">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="S40" t="n">
-        <v>9902</v>
+        <v>9995</v>
       </c>
       <c r="T40" t="n">
-        <v>20948</v>
+        <v>21011</v>
       </c>
       <c r="U40" t="n">
-        <v>2792</v>
+        <v>2802</v>
       </c>
       <c r="V40" t="n">
-        <v>16173</v>
+        <v>16231</v>
       </c>
       <c r="W40" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X40" t="n">
-        <v>4273</v>
+        <v>4298</v>
       </c>
       <c r="Y40" t="n">
-        <v>2651</v>
+        <v>2665</v>
       </c>
       <c r="Z40" t="n">
-        <v>15345</v>
+        <v>15531</v>
       </c>
       <c r="AA40" t="n">
-        <v>9902</v>
+        <v>10064</v>
       </c>
       <c r="AB40" t="n">
-        <v>27224</v>
+        <v>27286</v>
       </c>
       <c r="AC40" t="n">
-        <v>7680</v>
+        <v>7710</v>
       </c>
       <c r="AD40" t="n">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="AE40" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AF40" t="n">
-        <v>18350</v>
+        <v>18465</v>
       </c>
       <c r="AG40" t="n">
-        <v>12444</v>
+        <v>12510</v>
       </c>
       <c r="AH40" t="n">
-        <v>20847</v>
+        <v>21151</v>
       </c>
       <c r="AI40" t="n">
-        <v>26899</v>
+        <v>26891</v>
       </c>
       <c r="AJ40" t="n">
-        <v>6716</v>
+        <v>6681</v>
       </c>
       <c r="AK40" t="n">
-        <v>5445</v>
+        <v>5482</v>
       </c>
       <c r="AL40" t="n">
-        <v>10557</v>
+        <v>10642</v>
       </c>
       <c r="AM40" t="n">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="AN40" t="n">
-        <v>27228</v>
+        <v>27383</v>
       </c>
       <c r="AO40" t="n">
-        <v>4922</v>
+        <v>4957</v>
       </c>
       <c r="AP40" t="n">
-        <v>39946</v>
+        <v>40203</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3379</v>
+        <v>3413</v>
       </c>
       <c r="AR40" t="n">
-        <v>8273</v>
+        <v>8314</v>
       </c>
       <c r="AS40" t="n">
-        <v>5340</v>
+        <v>5375</v>
       </c>
       <c r="AT40" t="n">
-        <v>1291</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21331</v>
+        <v>21485</v>
       </c>
       <c r="C41" t="n">
-        <v>5348</v>
+        <v>5357</v>
       </c>
       <c r="D41" t="n">
-        <v>1764</v>
+        <v>1753</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>21856</v>
+        <v>22019</v>
       </c>
       <c r="G41" t="n">
-        <v>374976</v>
+        <v>377497</v>
       </c>
       <c r="H41" t="n">
-        <v>22069</v>
+        <v>22181</v>
       </c>
       <c r="I41" t="n">
-        <v>1929</v>
+        <v>1965</v>
       </c>
       <c r="J41" t="n">
-        <v>8232</v>
+        <v>8266</v>
       </c>
       <c r="K41" t="n">
-        <v>5848</v>
+        <v>5945</v>
       </c>
       <c r="L41" t="n">
-        <v>6530</v>
+        <v>6573</v>
       </c>
       <c r="M41" t="n">
-        <v>400926</v>
+        <v>403762</v>
       </c>
       <c r="N41" t="n">
-        <v>2175</v>
+        <v>2253</v>
       </c>
       <c r="O41" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P41" t="n">
-        <v>8900</v>
+        <v>8967</v>
       </c>
       <c r="Q41" t="n">
-        <v>7678</v>
+        <v>7725</v>
       </c>
       <c r="R41" t="n">
         <v>1195</v>
       </c>
       <c r="S41" t="n">
-        <v>9920</v>
+        <v>10026</v>
       </c>
       <c r="T41" t="n">
-        <v>20956</v>
+        <v>21066</v>
       </c>
       <c r="U41" t="n">
-        <v>2794</v>
+        <v>2805</v>
       </c>
       <c r="V41" t="n">
-        <v>16178</v>
+        <v>16261</v>
       </c>
       <c r="W41" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X41" t="n">
-        <v>4276</v>
+        <v>4312</v>
       </c>
       <c r="Y41" t="n">
-        <v>2655</v>
+        <v>2671</v>
       </c>
       <c r="Z41" t="n">
-        <v>15376</v>
+        <v>15598</v>
       </c>
       <c r="AA41" t="n">
-        <v>9927</v>
+        <v>10122</v>
       </c>
       <c r="AB41" t="n">
-        <v>27250</v>
+        <v>27322</v>
       </c>
       <c r="AC41" t="n">
-        <v>7685</v>
+        <v>7720</v>
       </c>
       <c r="AD41" t="n">
-        <v>2112</v>
+        <v>2129</v>
       </c>
       <c r="AE41" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AF41" t="n">
-        <v>18371</v>
+        <v>18515</v>
       </c>
       <c r="AG41" t="n">
-        <v>12451</v>
+        <v>12520</v>
       </c>
       <c r="AH41" t="n">
-        <v>20889</v>
+        <v>21233</v>
       </c>
       <c r="AI41" t="n">
-        <v>26912</v>
+        <v>26938</v>
       </c>
       <c r="AJ41" t="n">
-        <v>6724</v>
+        <v>6682</v>
       </c>
       <c r="AK41" t="n">
-        <v>5450</v>
+        <v>5489</v>
       </c>
       <c r="AL41" t="n">
-        <v>10574</v>
+        <v>10667</v>
       </c>
       <c r="AM41" t="n">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="AN41" t="n">
-        <v>27242</v>
+        <v>27450</v>
       </c>
       <c r="AO41" t="n">
-        <v>4925</v>
+        <v>4957</v>
       </c>
       <c r="AP41" t="n">
-        <v>39979</v>
+        <v>40321</v>
       </c>
       <c r="AQ41" t="n">
-        <v>3384</v>
+        <v>3420</v>
       </c>
       <c r="AR41" t="n">
-        <v>8280</v>
+        <v>8335</v>
       </c>
       <c r="AS41" t="n">
-        <v>5349</v>
+        <v>5390</v>
       </c>
       <c r="AT41" t="n">
-        <v>1293</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21360</v>
+        <v>21543</v>
       </c>
       <c r="C42" t="n">
-        <v>5357</v>
+        <v>5364</v>
       </c>
       <c r="D42" t="n">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>21924</v>
+        <v>22094</v>
       </c>
       <c r="G42" t="n">
-        <v>375751</v>
+        <v>378666</v>
       </c>
       <c r="H42" t="n">
-        <v>22104</v>
+        <v>22228</v>
       </c>
       <c r="I42" t="n">
-        <v>1936</v>
+        <v>1970</v>
       </c>
       <c r="J42" t="n">
-        <v>8240</v>
+        <v>8282</v>
       </c>
       <c r="K42" t="n">
-        <v>5862</v>
+        <v>5958</v>
       </c>
       <c r="L42" t="n">
-        <v>6544</v>
+        <v>6596</v>
       </c>
       <c r="M42" t="n">
-        <v>401815</v>
+        <v>405059</v>
       </c>
       <c r="N42" t="n">
-        <v>2196</v>
+        <v>2276</v>
       </c>
       <c r="O42" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P42" t="n">
-        <v>8910</v>
+        <v>8998</v>
       </c>
       <c r="Q42" t="n">
-        <v>7696</v>
+        <v>7758</v>
       </c>
       <c r="R42" t="n">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S42" t="n">
-        <v>9964</v>
+        <v>10052</v>
       </c>
       <c r="T42" t="n">
-        <v>20994</v>
+        <v>21131</v>
       </c>
       <c r="U42" t="n">
-        <v>2798</v>
+        <v>2812</v>
       </c>
       <c r="V42" t="n">
-        <v>16202</v>
+        <v>16295</v>
       </c>
       <c r="W42" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="X42" t="n">
-        <v>4284</v>
+        <v>4322</v>
       </c>
       <c r="Y42" t="n">
-        <v>2664</v>
+        <v>2676</v>
       </c>
       <c r="Z42" t="n">
-        <v>15462</v>
+        <v>15689</v>
       </c>
       <c r="AA42" t="n">
-        <v>10000</v>
+        <v>10201</v>
       </c>
       <c r="AB42" t="n">
-        <v>27296</v>
+        <v>27394</v>
       </c>
       <c r="AC42" t="n">
-        <v>7697</v>
+        <v>7749</v>
       </c>
       <c r="AD42" t="n">
-        <v>2113</v>
+        <v>2133</v>
       </c>
       <c r="AE42" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AF42" t="n">
-        <v>18407</v>
+        <v>18592</v>
       </c>
       <c r="AG42" t="n">
-        <v>12467</v>
+        <v>12557</v>
       </c>
       <c r="AH42" t="n">
-        <v>20976</v>
+        <v>21339</v>
       </c>
       <c r="AI42" t="n">
-        <v>26944</v>
+        <v>27011</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6733</v>
+        <v>6705</v>
       </c>
       <c r="AK42" t="n">
-        <v>5466</v>
+        <v>5509</v>
       </c>
       <c r="AL42" t="n">
-        <v>10602</v>
+        <v>10704</v>
       </c>
       <c r="AM42" t="n">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AN42" t="n">
-        <v>27298</v>
+        <v>27527</v>
       </c>
       <c r="AO42" t="n">
-        <v>4933</v>
+        <v>4968</v>
       </c>
       <c r="AP42" t="n">
-        <v>40069</v>
+        <v>40454</v>
       </c>
       <c r="AQ42" t="n">
-        <v>3388</v>
+        <v>3439</v>
       </c>
       <c r="AR42" t="n">
-        <v>8292</v>
+        <v>8375</v>
       </c>
       <c r="AS42" t="n">
-        <v>5363</v>
+        <v>5392</v>
       </c>
       <c r="AT42" t="n">
-        <v>1304</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21448</v>
+        <v>21575</v>
       </c>
       <c r="C43" t="n">
-        <v>5357</v>
+        <v>5372</v>
       </c>
       <c r="D43" t="n">
-        <v>1752</v>
+        <v>1768</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
-        <v>21965</v>
+        <v>22167</v>
       </c>
       <c r="G43" t="n">
-        <v>376684</v>
+        <v>379807</v>
       </c>
       <c r="H43" t="n">
-        <v>22139</v>
+        <v>22259</v>
       </c>
       <c r="I43" t="n">
-        <v>1962</v>
+        <v>1977</v>
       </c>
       <c r="J43" t="n">
-        <v>8257</v>
+        <v>8298</v>
       </c>
       <c r="K43" t="n">
-        <v>5945</v>
+        <v>5969</v>
       </c>
       <c r="L43" t="n">
-        <v>6556</v>
+        <v>6613</v>
       </c>
       <c r="M43" t="n">
-        <v>402857</v>
+        <v>406300</v>
       </c>
       <c r="N43" t="n">
-        <v>2228</v>
+        <v>2304</v>
       </c>
       <c r="O43" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P43" t="n">
-        <v>8952</v>
+        <v>9027</v>
       </c>
       <c r="Q43" t="n">
-        <v>7695</v>
+        <v>7787</v>
       </c>
       <c r="R43" t="n">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="S43" t="n">
-        <v>9995</v>
+        <v>10118</v>
       </c>
       <c r="T43" t="n">
-        <v>21011</v>
+        <v>21180</v>
       </c>
       <c r="U43" t="n">
-        <v>2802</v>
+        <v>2815</v>
       </c>
       <c r="V43" t="n">
-        <v>16231</v>
+        <v>16327</v>
       </c>
       <c r="W43" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X43" t="n">
-        <v>4298</v>
+        <v>4334</v>
       </c>
       <c r="Y43" t="n">
-        <v>2665</v>
+        <v>2679</v>
       </c>
       <c r="Z43" t="n">
-        <v>15531</v>
+        <v>15762</v>
       </c>
       <c r="AA43" t="n">
-        <v>10064</v>
+        <v>10268</v>
       </c>
       <c r="AB43" t="n">
-        <v>27286</v>
+        <v>27483</v>
       </c>
       <c r="AC43" t="n">
-        <v>7710</v>
+        <v>7777</v>
       </c>
       <c r="AD43" t="n">
-        <v>2127</v>
+        <v>2139</v>
       </c>
       <c r="AE43" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AF43" t="n">
-        <v>18465</v>
+        <v>18629</v>
       </c>
       <c r="AG43" t="n">
-        <v>12510</v>
+        <v>12591</v>
       </c>
       <c r="AH43" t="n">
-        <v>21151</v>
+        <v>21452</v>
       </c>
       <c r="AI43" t="n">
-        <v>26891</v>
+        <v>27078</v>
       </c>
       <c r="AJ43" t="n">
-        <v>6681</v>
+        <v>6731</v>
       </c>
       <c r="AK43" t="n">
-        <v>5482</v>
+        <v>5519</v>
       </c>
       <c r="AL43" t="n">
-        <v>10642</v>
+        <v>10731</v>
       </c>
       <c r="AM43" t="n">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AN43" t="n">
-        <v>27383</v>
+        <v>27604</v>
       </c>
       <c r="AO43" t="n">
-        <v>4957</v>
+        <v>4972</v>
       </c>
       <c r="AP43" t="n">
-        <v>40203</v>
+        <v>40613</v>
       </c>
       <c r="AQ43" t="n">
-        <v>3413</v>
+        <v>3447</v>
       </c>
       <c r="AR43" t="n">
-        <v>8314</v>
+        <v>8413</v>
       </c>
       <c r="AS43" t="n">
-        <v>5375</v>
+        <v>5410</v>
       </c>
       <c r="AT43" t="n">
-        <v>1309</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>21485</v>
+        <v>21645</v>
       </c>
       <c r="C44" t="n">
-        <v>5357</v>
+        <v>5398</v>
       </c>
       <c r="D44" t="n">
-        <v>1753</v>
+        <v>1778</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>22019</v>
+        <v>22300</v>
       </c>
       <c r="G44" t="n">
-        <v>377497</v>
+        <v>382067</v>
       </c>
       <c r="H44" t="n">
-        <v>22181</v>
+        <v>22347</v>
       </c>
       <c r="I44" t="n">
-        <v>1965</v>
+        <v>1988</v>
       </c>
       <c r="J44" t="n">
-        <v>8266</v>
+        <v>8343</v>
       </c>
       <c r="K44" t="n">
-        <v>5945</v>
+        <v>5990</v>
       </c>
       <c r="L44" t="n">
-        <v>6573</v>
+        <v>6648</v>
       </c>
       <c r="M44" t="n">
-        <v>403762</v>
+        <v>408731</v>
       </c>
       <c r="N44" t="n">
-        <v>2253</v>
+        <v>2351</v>
       </c>
       <c r="O44" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P44" t="n">
-        <v>8967</v>
+        <v>9120</v>
       </c>
       <c r="Q44" t="n">
-        <v>7725</v>
+        <v>7845</v>
       </c>
       <c r="R44" t="n">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="S44" t="n">
-        <v>10026</v>
+        <v>10226</v>
       </c>
       <c r="T44" t="n">
-        <v>21066</v>
+        <v>21277</v>
       </c>
       <c r="U44" t="n">
-        <v>2805</v>
+        <v>2822</v>
       </c>
       <c r="V44" t="n">
-        <v>16261</v>
+        <v>16413</v>
       </c>
       <c r="W44" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X44" t="n">
-        <v>4312</v>
+        <v>4343</v>
       </c>
       <c r="Y44" t="n">
-        <v>2671</v>
+        <v>2684</v>
       </c>
       <c r="Z44" t="n">
-        <v>15598</v>
+        <v>15878</v>
       </c>
       <c r="AA44" t="n">
-        <v>10122</v>
+        <v>10372</v>
       </c>
       <c r="AB44" t="n">
-        <v>27322</v>
+        <v>27631</v>
       </c>
       <c r="AC44" t="n">
-        <v>7720</v>
+        <v>7819</v>
       </c>
       <c r="AD44" t="n">
-        <v>2129</v>
+        <v>2146</v>
       </c>
       <c r="AE44" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF44" t="n">
-        <v>18515</v>
+        <v>18727</v>
       </c>
       <c r="AG44" t="n">
-        <v>12520</v>
+        <v>12659</v>
       </c>
       <c r="AH44" t="n">
-        <v>21233</v>
+        <v>21698</v>
       </c>
       <c r="AI44" t="n">
-        <v>26938</v>
+        <v>27214</v>
       </c>
       <c r="AJ44" t="n">
-        <v>6682</v>
+        <v>6761</v>
       </c>
       <c r="AK44" t="n">
-        <v>5489</v>
+        <v>5551</v>
       </c>
       <c r="AL44" t="n">
-        <v>10667</v>
+        <v>10786</v>
       </c>
       <c r="AM44" t="n">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="AN44" t="n">
-        <v>27450</v>
+        <v>27728</v>
       </c>
       <c r="AO44" t="n">
-        <v>4957</v>
+        <v>4988</v>
       </c>
       <c r="AP44" t="n">
-        <v>40321</v>
+        <v>40892</v>
       </c>
       <c r="AQ44" t="n">
-        <v>3420</v>
+        <v>3484</v>
       </c>
       <c r="AR44" t="n">
-        <v>8335</v>
+        <v>8486</v>
       </c>
       <c r="AS44" t="n">
-        <v>5390</v>
+        <v>5437</v>
       </c>
       <c r="AT44" t="n">
-        <v>1311</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21543</v>
+        <v>21636</v>
       </c>
       <c r="C45" t="n">
-        <v>5364</v>
+        <v>5400</v>
       </c>
       <c r="D45" t="n">
-        <v>1760</v>
+        <v>1778</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>22094</v>
+        <v>22296</v>
       </c>
       <c r="G45" t="n">
-        <v>378666</v>
+        <v>382061</v>
       </c>
       <c r="H45" t="n">
-        <v>22228</v>
+        <v>22332</v>
       </c>
       <c r="I45" t="n">
-        <v>1970</v>
+        <v>1989</v>
       </c>
       <c r="J45" t="n">
-        <v>8282</v>
+        <v>8337</v>
       </c>
       <c r="K45" t="n">
-        <v>5958</v>
+        <v>6010</v>
       </c>
       <c r="L45" t="n">
-        <v>6596</v>
+        <v>6647</v>
       </c>
       <c r="M45" t="n">
-        <v>405059</v>
+        <v>408732</v>
       </c>
       <c r="N45" t="n">
-        <v>2276</v>
+        <v>2359</v>
       </c>
       <c r="O45" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P45" t="n">
-        <v>8998</v>
+        <v>9136</v>
       </c>
       <c r="Q45" t="n">
-        <v>7758</v>
+        <v>7829</v>
       </c>
       <c r="R45" t="n">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="S45" t="n">
-        <v>10052</v>
+        <v>10223</v>
       </c>
       <c r="T45" t="n">
-        <v>21131</v>
+        <v>21272</v>
       </c>
       <c r="U45" t="n">
-        <v>2812</v>
+        <v>2823</v>
       </c>
       <c r="V45" t="n">
-        <v>16295</v>
+        <v>16414</v>
       </c>
       <c r="W45" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X45" t="n">
-        <v>4322</v>
+        <v>4343</v>
       </c>
       <c r="Y45" t="n">
-        <v>2676</v>
+        <v>2685</v>
       </c>
       <c r="Z45" t="n">
-        <v>15689</v>
+        <v>15880</v>
       </c>
       <c r="AA45" t="n">
-        <v>10201</v>
+        <v>10372</v>
       </c>
       <c r="AB45" t="n">
-        <v>27394</v>
+        <v>27625</v>
       </c>
       <c r="AC45" t="n">
-        <v>7749</v>
+        <v>7818</v>
       </c>
       <c r="AD45" t="n">
-        <v>2133</v>
+        <v>2139</v>
       </c>
       <c r="AE45" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF45" t="n">
-        <v>18592</v>
+        <v>18729</v>
       </c>
       <c r="AG45" t="n">
-        <v>12557</v>
+        <v>12653</v>
       </c>
       <c r="AH45" t="n">
-        <v>21339</v>
+        <v>21740</v>
       </c>
       <c r="AI45" t="n">
-        <v>27011</v>
+        <v>27210</v>
       </c>
       <c r="AJ45" t="n">
-        <v>6705</v>
+        <v>6747</v>
       </c>
       <c r="AK45" t="n">
-        <v>5509</v>
+        <v>5551</v>
       </c>
       <c r="AL45" t="n">
-        <v>10704</v>
+        <v>10791</v>
       </c>
       <c r="AM45" t="n">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AN45" t="n">
-        <v>27527</v>
+        <v>27722</v>
       </c>
       <c r="AO45" t="n">
-        <v>4968</v>
+        <v>4989</v>
       </c>
       <c r="AP45" t="n">
-        <v>40454</v>
+        <v>40890</v>
       </c>
       <c r="AQ45" t="n">
-        <v>3439</v>
+        <v>3487</v>
       </c>
       <c r="AR45" t="n">
-        <v>8375</v>
+        <v>8496</v>
       </c>
       <c r="AS45" t="n">
-        <v>5392</v>
+        <v>5433</v>
       </c>
       <c r="AT45" t="n">
-        <v>1314</v>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>
